--- a/app/documentation/example_expenses_en.xlsx
+++ b/app/documentation/example_expenses_en.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1613857134" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1613857134" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1613857134" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1613857134"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614121310" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614121310" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614121310" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614121310"/>
     </ext>
   </extLst>
 </workbook>
@@ -1285,7 +1285,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1613857134" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1300,7 +1300,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1613857134" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1316,7 +1316,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1613857134" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1331,7 +1331,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1613857134" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1340,7 +1340,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,19 +1386,8 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1613857134" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1414,7 +1403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134"/>
+          <pm:border xmlns:pm="smNativeData" id="1614121310"/>
         </ext>
       </extLst>
     </border>
@@ -1433,7 +1422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1454,7 +1443,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1476,7 +1465,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1497,7 +1486,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1518,7 +1507,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1539,7 +1528,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1561,7 +1550,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1583,7 +1572,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1606,7 +1595,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1628,7 +1617,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1651,7 +1640,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1673,7 +1662,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1695,29 +1684,10 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134">
+          <pm:border xmlns:pm="smNativeData" id="1614121310">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1613857134"/>
         </ext>
       </extLst>
     </border>
@@ -1806,10 +1776,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1613857134" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614121310" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1613857134" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614121310" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -2076,7 +2046,7 @@
   <dimension ref="A1:N624"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B2" sqref="B2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
@@ -2088,20 +2058,8 @@
     <col min="6" max="6" width="14.330357" customWidth="1"/>
     <col min="7" max="7" width="10.544643" customWidth="1"/>
     <col min="8" max="8" width="25.214286" customWidth="1" style="27"/>
-    <col min="9" max="9" width="23.000000" hidden="1" customWidth="1">
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1613857134" min="9" max="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
-        </ext>
-      </extLst>
-    </col>
-    <col min="10" max="10" width="15.660714" hidden="1" customWidth="1">
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1613857134" min="10" max="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
-        </ext>
-      </extLst>
-    </col>
+    <col min="9" max="9" width="23.000000" customWidth="1"/>
+    <col min="10" max="10" width="15.660714" customWidth="1"/>
     <col min="12" max="12" width="18.437500" customWidth="1"/>
     <col min="13" max="13" width="13.107143" customWidth="1"/>
     <col min="14" max="14" width="14.000000" customWidth="1"/>
@@ -11919,7 +11877,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1613857134" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614121310" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11928,14 +11886,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1613857134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1613857134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1613857134" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121310" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11957,7 +11915,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1613857134" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614121310" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11966,14 +11924,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1613857134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1613857134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1613857134" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121310" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11995,7 +11953,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1613857134" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614121310" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12004,14 +11962,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1613857134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1613857134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1613857134" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121310" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/documentation/example_expenses_en.xlsx
+++ b/app/documentation/example_expenses_en.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614121310" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614121310" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614121310" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614121310"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614121623" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614121623" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614121623" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614121623"/>
     </ext>
   </extLst>
 </workbook>
@@ -1285,7 +1285,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1300,7 +1300,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1316,7 +1316,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1331,7 +1331,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121310" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1403,7 +1403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310"/>
+          <pm:border xmlns:pm="smNativeData" id="1614121623"/>
         </ext>
       </extLst>
     </border>
@@ -1422,7 +1422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1443,7 +1443,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1465,7 +1465,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1486,7 +1486,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1507,7 +1507,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1528,7 +1528,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1550,7 +1550,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1572,7 +1572,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1595,7 +1595,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1617,7 +1617,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1640,7 +1640,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1662,7 +1662,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1684,7 +1684,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121310">
+          <pm:border xmlns:pm="smNativeData" id="1614121623">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1776,10 +1776,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614121310" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614121623" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614121310" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614121623" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -11877,7 +11877,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614121310" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614121623" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11886,14 +11886,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121310" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121623" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11915,7 +11915,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614121310" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614121623" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11924,14 +11924,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121310" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121623" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11953,7 +11953,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614121310" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614121623" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11962,14 +11962,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614121310" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121310" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121623" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/documentation/example_expenses_en.xlsx
+++ b/app/documentation/example_expenses_en.xlsx
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614121623" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614121623" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614121623" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614121623"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614162842" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614162842" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614162842" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614162842"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -63,478 +63,457 @@
     <t>Trip</t>
   </si>
   <si>
-    <t>Campus Laval  : 1er loyer du CAMPUS LAVAL</t>
+    <t>transport bus arrivée</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>chambre mois d'août</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>bonbon reese (test carte bleue)</t>
+  </si>
+  <si>
+    <t>alimentary</t>
+  </si>
+  <si>
+    <t>adaptateur</t>
+  </si>
+  <si>
+    <t>equipement</t>
+  </si>
+  <si>
+    <t>Mcdo</t>
+  </si>
+  <si>
+    <t>Thé gingembre 1 boite</t>
+  </si>
+  <si>
+    <t>Levis : 2 jeans, un foncé et un couleur jean</t>
+  </si>
+  <si>
+    <t>Walmart : brosse à dents, crocks, rasoirs</t>
+  </si>
+  <si>
+    <t>equipement:other</t>
+  </si>
+  <si>
+    <t>shampoing Ives Rocher</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>Walmart : tasse, bol, bouilloire, boule à thé, manger</t>
+  </si>
+  <si>
+    <t>jean et short sport</t>
+  </si>
+  <si>
+    <t>carte bus 1 jour</t>
+  </si>
+  <si>
+    <t>frappé starbuck</t>
+  </si>
+  <si>
+    <t>PFK : mauvais</t>
+  </si>
+  <si>
+    <t>Queue de castor : poutine</t>
+  </si>
+  <si>
+    <t>Thinkkitchen : fouet, passoire</t>
+  </si>
+  <si>
+    <t>Le creuset : gant et protège main cuisine</t>
+  </si>
+  <si>
+    <t>H&amp;M : 2 t-shirt</t>
+  </si>
+  <si>
+    <t>Bus vieux port, feu d'artifice</t>
+  </si>
+  <si>
+    <t>Tim Horton</t>
+  </si>
+  <si>
+    <t>Walmart : draps + oreiller</t>
+  </si>
+  <si>
+    <t>Murphy's : bar</t>
+  </si>
+  <si>
+    <t>retrait espèce</t>
+  </si>
+  <si>
+    <t>other:withdrawal</t>
+  </si>
+  <si>
+    <t>Metro : nourriture</t>
+  </si>
+  <si>
+    <t>Transport bus</t>
+  </si>
+  <si>
+    <t>Bar : mètre bière</t>
+  </si>
+  <si>
+    <t>Poutineville : grosse poutine</t>
+  </si>
+  <si>
+    <t>Poutineville : Tiphanie</t>
+  </si>
+  <si>
+    <t>Sport Experts : chaussures et maillot de bain</t>
+  </si>
+  <si>
+    <t>Metro : cuisine et barbecue</t>
+  </si>
+  <si>
+    <t>Lvlop</t>
+  </si>
+  <si>
+    <t>leasure</t>
+  </si>
+  <si>
+    <t>Epicerie européenne</t>
+  </si>
+  <si>
+    <t>Metro : courses cuisine et manger</t>
+  </si>
+  <si>
+    <t>Creuset : Casserole et poele</t>
+  </si>
+  <si>
+    <t>Walmart : équipement papier cuisson …</t>
+  </si>
+  <si>
+    <t>Linge</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Coop Zone : feuilles cahier</t>
+  </si>
+  <si>
+    <t>Dollarama</t>
+  </si>
+  <si>
+    <t>Poste canada : enveloppes blanches</t>
+  </si>
+  <si>
+    <t>Lpu</t>
+  </si>
+  <si>
+    <t>Amazon : balance et mixeur</t>
+  </si>
+  <si>
+    <t>OVH : nom domaine</t>
+  </si>
+  <si>
+    <t>Bière magasin près lvlop</t>
+  </si>
+  <si>
+    <t>La place : thé et autre</t>
+  </si>
+  <si>
+    <t>Pub Universitaire</t>
+  </si>
+  <si>
+    <t>Pub Universitaire : soirée</t>
+  </si>
+  <si>
+    <t>leasure:pub</t>
+  </si>
+  <si>
+    <t>alimentary:food</t>
+  </si>
+  <si>
+    <t>Iga : nourriture</t>
+  </si>
+  <si>
+    <t>ThinkKitchen : équipement</t>
+  </si>
+  <si>
+    <t>equipement:cooking</t>
+  </si>
+  <si>
+    <t>Métro : alimentation</t>
+  </si>
+  <si>
+    <t>T-shirt laval x2</t>
+  </si>
+  <si>
+    <t>equipement:dress</t>
+  </si>
+  <si>
+    <t>Amazon : livres cours</t>
+  </si>
+  <si>
+    <t>Métro : Fruits légumes</t>
+  </si>
+  <si>
+    <t>Imprimante</t>
+  </si>
+  <si>
+    <t>other:printer</t>
+  </si>
+  <si>
+    <t>Ciné : Ça</t>
+  </si>
+  <si>
+    <t>leasure:movie_theater</t>
+  </si>
+  <si>
+    <t>alimentary:restaurant</t>
+  </si>
+  <si>
+    <t>Métro : légume</t>
+  </si>
+  <si>
+    <t>SAQ : vodka et kraken (rhum)</t>
+  </si>
+  <si>
+    <t>Coiffeur Cité</t>
+  </si>
+  <si>
+    <t>Pub U</t>
+  </si>
+  <si>
+    <t>Amazon : raquette ping pong</t>
+  </si>
+  <si>
+    <t>Metro : courses</t>
+  </si>
+  <si>
+    <t>Dollarama : plats en verre</t>
+  </si>
+  <si>
+    <t>IGA : cuisine</t>
+  </si>
+  <si>
+    <t>alimentary:pastry</t>
+  </si>
+  <si>
+    <t>Métro : cuisine</t>
+  </si>
+  <si>
+    <t>Escompte : bière</t>
+  </si>
+  <si>
+    <t>alimentary:alcohol</t>
+  </si>
+  <si>
+    <t>Épicerie européenne</t>
+  </si>
+  <si>
+    <t>alimentary:gluttony</t>
+  </si>
+  <si>
+    <t>Anniv bougies + autre</t>
+  </si>
+  <si>
+    <t>other:present</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Mcdo : rentrant de soirée</t>
+  </si>
+  <si>
+    <t>Shogun : Japonais à volonter</t>
+  </si>
+  <si>
+    <t>Campus Laval : Payement des loyers de oct., nov. et déc.</t>
   </si>
   <si>
     <t>housing:rent</t>
   </si>
   <si>
-    <t>Avion : billet France -&gt; Québec</t>
+    <t>Amazon : jeu d'échec</t>
+  </si>
+  <si>
+    <t>leasure:board_game</t>
+  </si>
+  <si>
+    <t>Pub U : ailes de poulet + bière</t>
+  </si>
+  <si>
+    <t>Metro : alimentaire</t>
+  </si>
+  <si>
+    <t>SAQ : alcool</t>
+  </si>
+  <si>
+    <t>Chez Alphonse : provision départ baleines</t>
+  </si>
+  <si>
+    <t>Walmart : provision départ baleines</t>
+  </si>
+  <si>
+    <t>Décathlon : thermos</t>
+  </si>
+  <si>
+    <t>equipement:sport</t>
+  </si>
+  <si>
+    <t>Mcdo :</t>
+  </si>
+  <si>
+    <t>Frisson : glace 2 boules</t>
+  </si>
+  <si>
+    <t>Epicerie tadusac</t>
+  </si>
+  <si>
+    <t>Métro : viande</t>
+  </si>
+  <si>
+    <t>Coiffeur cité : gomme</t>
+  </si>
+  <si>
+    <t>other:hairdresser</t>
+  </si>
+  <si>
+    <t>Yves Rocher : masques</t>
+  </si>
+  <si>
+    <t>health:cream</t>
+  </si>
+  <si>
+    <t>Walmart : crème, solaire, coussin, lampe</t>
+  </si>
+  <si>
+    <t>Dollarama : paniers</t>
+  </si>
+  <si>
+    <t>ENSEA : inscription</t>
+  </si>
+  <si>
+    <t>school:registration</t>
+  </si>
+  <si>
+    <t>CVEC : inscription ENSEA</t>
+  </si>
+  <si>
+    <t>Remboursement parents</t>
+  </si>
+  <si>
+    <t>reimbursement:119</t>
+  </si>
+  <si>
+    <t>reimbursement:120</t>
+  </si>
+  <si>
+    <t>Walmart : courses</t>
+  </si>
+  <si>
+    <t>Métro : courses</t>
+  </si>
+  <si>
+    <t>Livres + affaires</t>
+  </si>
+  <si>
+    <t>school:supplies</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t>other:post</t>
+  </si>
+  <si>
+    <t>H&amp;M : vêtements haut</t>
+  </si>
+  <si>
+    <t>Coinomatic : argent pour machine à laver</t>
+  </si>
+  <si>
+    <t>housing:laundry</t>
+  </si>
+  <si>
+    <t>Métro : courses cuisine</t>
+  </si>
+  <si>
+    <t>IGA : courses + pâtisserie</t>
+  </si>
+  <si>
+    <t>ESTA</t>
+  </si>
+  <si>
+    <t>transport:authorization</t>
+  </si>
+  <si>
+    <t>NY.19.10</t>
+  </si>
+  <si>
+    <t>Frisson : glace</t>
+  </si>
+  <si>
+    <t>Desjardins : marathon Québec</t>
+  </si>
+  <si>
+    <t>leasure:activity</t>
+  </si>
+  <si>
+    <t>Metro courses</t>
+  </si>
+  <si>
+    <t>Clap (cinéma, Joker)</t>
+  </si>
+  <si>
+    <t>lvlop</t>
+  </si>
+  <si>
+    <t>leasure:out</t>
+  </si>
+  <si>
+    <t>Mcdo : Uber eats</t>
+  </si>
+  <si>
+    <t>Amazon : brassard course</t>
+  </si>
+  <si>
+    <t>Remboursement : Aurélien logement New York; NY.19.10</t>
+  </si>
+  <si>
+    <t>housing:hotel</t>
+  </si>
+  <si>
+    <t>Busbud : bus aller retour NewYork; NY.19.10</t>
+  </si>
+  <si>
+    <t>transport:bus</t>
+  </si>
+  <si>
+    <t>Sport Experts : sac course</t>
+  </si>
+  <si>
+    <t>RAMQ</t>
+  </si>
+  <si>
+    <t>health:insurance</t>
+  </si>
+  <si>
+    <t>Sport Experts : gourde</t>
+  </si>
+  <si>
+    <t>Métro courses</t>
+  </si>
+  <si>
+    <t>Remboursement Aymeric Cuba vol + hotel inclus; cuba.19.10</t>
   </si>
   <si>
     <t>transport:plane</t>
-  </si>
-  <si>
-    <t>Equipement fnac, oreiller</t>
-  </si>
-  <si>
-    <t>equipement:other</t>
-  </si>
-  <si>
-    <t>Pharmacie crème visage + dermatologue</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>Mcdo</t>
-  </si>
-  <si>
-    <t>alimentary</t>
-  </si>
-  <si>
-    <t>Leclerc</t>
-  </si>
-  <si>
-    <t>Franprix</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>transport bus arrivée</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>chambre mois d'août</t>
-  </si>
-  <si>
-    <t>housing</t>
-  </si>
-  <si>
-    <t>bonbon reese (test carte bleue)</t>
-  </si>
-  <si>
-    <t>adaptateur</t>
-  </si>
-  <si>
-    <t>equipement</t>
-  </si>
-  <si>
-    <t>Thé gingembre 1 boite</t>
-  </si>
-  <si>
-    <t>Levis : 2 jeans, un foncé et un couleur jean</t>
-  </si>
-  <si>
-    <t>Walmart : brosse à dents, crocks, rasoirs</t>
-  </si>
-  <si>
-    <t>shampoing Ives Rocher</t>
-  </si>
-  <si>
-    <t>Walmart : tasse, bol, bouilloire, boule à thé, manger</t>
-  </si>
-  <si>
-    <t>jean et short sport</t>
-  </si>
-  <si>
-    <t>carte bus 1 jour</t>
-  </si>
-  <si>
-    <t>frappé starbuck</t>
-  </si>
-  <si>
-    <t>PFK : mauvais</t>
-  </si>
-  <si>
-    <t>Queue de castor : poutine</t>
-  </si>
-  <si>
-    <t>Thinkkitchen : fouet, passoire</t>
-  </si>
-  <si>
-    <t>Le creuset : gant et protège main cuisine</t>
-  </si>
-  <si>
-    <t>H&amp;M : 2 t-shirt</t>
-  </si>
-  <si>
-    <t>Bus vieux port, feu d'artifice</t>
-  </si>
-  <si>
-    <t>Tim Horton</t>
-  </si>
-  <si>
-    <t>Walmart : draps + oreiller</t>
-  </si>
-  <si>
-    <t>Murphy's : bar</t>
-  </si>
-  <si>
-    <t>retrait espèce</t>
-  </si>
-  <si>
-    <t>other:withdrawal</t>
-  </si>
-  <si>
-    <t>Metro : nourriture</t>
-  </si>
-  <si>
-    <t>Transport bus</t>
-  </si>
-  <si>
-    <t>Bar : mètre bière</t>
-  </si>
-  <si>
-    <t>Poutineville : grosse poutine</t>
-  </si>
-  <si>
-    <t>Poutineville : Tiphanie</t>
-  </si>
-  <si>
-    <t>Sport Experts : chaussures et maillot de bain</t>
-  </si>
-  <si>
-    <t>Metro : cuisine et barbecue</t>
-  </si>
-  <si>
-    <t>Lvlop</t>
-  </si>
-  <si>
-    <t>leasure</t>
-  </si>
-  <si>
-    <t>Epicerie européenne</t>
-  </si>
-  <si>
-    <t>Metro : courses cuisine et manger</t>
-  </si>
-  <si>
-    <t>Creuset : Casserole et poele</t>
-  </si>
-  <si>
-    <t>Walmart : équipement papier cuisson …</t>
-  </si>
-  <si>
-    <t>Linge</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Coop Zone : feuilles cahier</t>
-  </si>
-  <si>
-    <t>Dollarama</t>
-  </si>
-  <si>
-    <t>Poste canada : enveloppes blanches</t>
-  </si>
-  <si>
-    <t>Lpu</t>
-  </si>
-  <si>
-    <t>Amazon : balance et mixeur</t>
-  </si>
-  <si>
-    <t>OVH : nom domaine</t>
-  </si>
-  <si>
-    <t>Bière magasin près lvlop</t>
-  </si>
-  <si>
-    <t>La place : thé et autre</t>
-  </si>
-  <si>
-    <t>Pub Universitaire</t>
-  </si>
-  <si>
-    <t>Pub Universitaire : soirée</t>
-  </si>
-  <si>
-    <t>leasure:pub</t>
-  </si>
-  <si>
-    <t>alimentary:food</t>
-  </si>
-  <si>
-    <t>Iga : nourriture</t>
-  </si>
-  <si>
-    <t>ThinkKitchen : équipement</t>
-  </si>
-  <si>
-    <t>equipement:cooking</t>
-  </si>
-  <si>
-    <t>Métro : alimentation</t>
-  </si>
-  <si>
-    <t>T-shirt laval x2</t>
-  </si>
-  <si>
-    <t>equipement:dress</t>
-  </si>
-  <si>
-    <t>Amazon : livres cours</t>
-  </si>
-  <si>
-    <t>Métro : Fruits légumes</t>
-  </si>
-  <si>
-    <t>Imprimante</t>
-  </si>
-  <si>
-    <t>other:printer</t>
-  </si>
-  <si>
-    <t>Ciné : Ça</t>
-  </si>
-  <si>
-    <t>leasure:movie_theater</t>
-  </si>
-  <si>
-    <t>alimentary:restaurant</t>
-  </si>
-  <si>
-    <t>Métro : légume</t>
-  </si>
-  <si>
-    <t>SAQ : vodka et kraken (rhum)</t>
-  </si>
-  <si>
-    <t>Coiffeur Cité</t>
-  </si>
-  <si>
-    <t>Pub U</t>
-  </si>
-  <si>
-    <t>Amazon : raquette ping pong</t>
-  </si>
-  <si>
-    <t>Metro : courses</t>
-  </si>
-  <si>
-    <t>Dollarama : plats en verre</t>
-  </si>
-  <si>
-    <t>IGA : cuisine</t>
-  </si>
-  <si>
-    <t>alimentary:pastry</t>
-  </si>
-  <si>
-    <t>Métro : cuisine</t>
-  </si>
-  <si>
-    <t>Escompte : bière</t>
-  </si>
-  <si>
-    <t>alimentary:alcohol</t>
-  </si>
-  <si>
-    <t>Épicerie européenne</t>
-  </si>
-  <si>
-    <t>alimentary:gluttony</t>
-  </si>
-  <si>
-    <t>Anniv bougies + autre</t>
-  </si>
-  <si>
-    <t>other:present</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Mcdo : rentrant de soirée</t>
-  </si>
-  <si>
-    <t>Shogun : Japonais à volonter</t>
-  </si>
-  <si>
-    <t>Campus Laval : Payement des loyers de oct., nov. et déc.</t>
-  </si>
-  <si>
-    <t>Amazon : jeu d'échec</t>
-  </si>
-  <si>
-    <t>leasure:board_game</t>
-  </si>
-  <si>
-    <t>Pub U : ailes de poulet + bière</t>
-  </si>
-  <si>
-    <t>Metro : alimentaire</t>
-  </si>
-  <si>
-    <t>SAQ : alcool</t>
-  </si>
-  <si>
-    <t>Chez Alphonse : provision départ baleines</t>
-  </si>
-  <si>
-    <t>Walmart : provision départ baleines</t>
-  </si>
-  <si>
-    <t>Décathlon : thermos</t>
-  </si>
-  <si>
-    <t>equipement:sport</t>
-  </si>
-  <si>
-    <t>Mcdo :</t>
-  </si>
-  <si>
-    <t>Frisson : glace 2 boules</t>
-  </si>
-  <si>
-    <t>Epicerie tadusac</t>
-  </si>
-  <si>
-    <t>Métro : viande</t>
-  </si>
-  <si>
-    <t>Coiffeur cité : gomme</t>
-  </si>
-  <si>
-    <t>other:hairdresser</t>
-  </si>
-  <si>
-    <t>Yves Rocher : masques</t>
-  </si>
-  <si>
-    <t>health:cream</t>
-  </si>
-  <si>
-    <t>Walmart : crème, solaire, coussin, lampe</t>
-  </si>
-  <si>
-    <t>Dollarama : paniers</t>
-  </si>
-  <si>
-    <t>ENSEA : inscription</t>
-  </si>
-  <si>
-    <t>school:registration</t>
-  </si>
-  <si>
-    <t>CVEC : inscription ENSEA</t>
-  </si>
-  <si>
-    <t>Remboursement parents</t>
-  </si>
-  <si>
-    <t>reimbursement:119</t>
-  </si>
-  <si>
-    <t>reimbursement:120</t>
-  </si>
-  <si>
-    <t>Walmart : courses</t>
-  </si>
-  <si>
-    <t>Métro : courses</t>
-  </si>
-  <si>
-    <t>Livres + affaires</t>
-  </si>
-  <si>
-    <t>school:supplies</t>
-  </si>
-  <si>
-    <t>lettre</t>
-  </si>
-  <si>
-    <t>other:post</t>
-  </si>
-  <si>
-    <t>H&amp;M : vêtements haut</t>
-  </si>
-  <si>
-    <t>Coinomatic : argent pour machine à laver</t>
-  </si>
-  <si>
-    <t>housing:laundry</t>
-  </si>
-  <si>
-    <t>Métro : courses cuisine</t>
-  </si>
-  <si>
-    <t>IGA : courses + pâtisserie</t>
-  </si>
-  <si>
-    <t>ESTA</t>
-  </si>
-  <si>
-    <t>transport:authorization</t>
-  </si>
-  <si>
-    <t>NY.19.10</t>
-  </si>
-  <si>
-    <t>Frisson : glace</t>
-  </si>
-  <si>
-    <t>Desjardins : marathon Québec</t>
-  </si>
-  <si>
-    <t>leasure:activity</t>
-  </si>
-  <si>
-    <t>Metro courses</t>
-  </si>
-  <si>
-    <t>Clap (cinéma, Joker)</t>
-  </si>
-  <si>
-    <t>lvlop</t>
-  </si>
-  <si>
-    <t>leasure:out</t>
-  </si>
-  <si>
-    <t>Mcdo : Uber eats</t>
-  </si>
-  <si>
-    <t>Amazon : brassard course</t>
-  </si>
-  <si>
-    <t>Remboursement : Aurélien logement New York; NY.19.10</t>
-  </si>
-  <si>
-    <t>housing:hotel</t>
-  </si>
-  <si>
-    <t>Busbud : bus aller retour NewYork; NY.19.10</t>
-  </si>
-  <si>
-    <t>transport:bus</t>
-  </si>
-  <si>
-    <t>Sport Experts : sac course</t>
-  </si>
-  <si>
-    <t>RAMQ</t>
-  </si>
-  <si>
-    <t>health:insurance</t>
-  </si>
-  <si>
-    <t>Sport Experts : gourde</t>
-  </si>
-  <si>
-    <t>Métro courses</t>
-  </si>
-  <si>
-    <t>Remboursement Aymeric Cuba vol + hotel inclus; cuba.19.10</t>
   </si>
   <si>
     <t>CUBA.19.10</t>
@@ -1285,7 +1264,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1300,7 +1279,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1316,7 +1295,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1331,7 +1310,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614121623" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1403,7 +1382,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623"/>
+          <pm:border xmlns:pm="smNativeData" id="1614162842"/>
         </ext>
       </extLst>
     </border>
@@ -1422,7 +1401,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1443,7 +1422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1465,7 +1444,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1486,7 +1465,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1507,7 +1486,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1528,7 +1507,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1550,7 +1529,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1572,7 +1551,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1595,7 +1574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1617,7 +1596,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1640,7 +1619,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1662,7 +1641,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1684,7 +1663,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614121623">
+          <pm:border xmlns:pm="smNativeData" id="1614162842">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1776,10 +1755,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614121623" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614162842" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614121623" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614162842" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -2107,56 +2086,28 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="n">
-        <v>246.550000000000011</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="35" t="n">
-        <v>43678</v>
-      </c>
+      <c r="B2" s="12"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="27" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>545.230000000000018</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="E3" s="35"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="27" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="35" t="n">
-        <v>43681</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="27" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
     </row>
@@ -2164,21 +2115,10 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
-        <f>75+60</f>
-        <v>135</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="35" t="n">
-        <v>43683</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="27" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
@@ -2186,20 +2126,10 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="35" t="n">
-        <v>43687</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
@@ -2207,61 +2137,31 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="13"/>
       <c r="E7" s="35"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="35" t="n">
-        <v>43692</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="27" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="n">
-        <v>10</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="35" t="n">
-        <v>43694</v>
-      </c>
-      <c r="F9" s="16">
-        <f>SUM(B2:B9)</f>
-        <v>1062.77999999999997</v>
-      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="27" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="n">
@@ -2272,7 +2172,7 @@
         <v>6.5</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E10" s="35" t="n">
         <v>43699</v>
@@ -2280,7 +2180,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2292,13 +2192,13 @@
         <v>117.5</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="27" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2307,16 +2207,16 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="n">
-        <v>10.3400000000000016</v>
+        <v>10.3399999999999999</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2328,13 +2228,13 @@
         <v>6.61000000000000032</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2355,7 +2255,7 @@
         <v>150.949999999999989</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J14">
         <f>C14+C76+C109</f>
@@ -2371,7 +2271,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E15" s="35" t="n">
         <v>43700</v>
@@ -2379,7 +2279,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2391,13 +2291,13 @@
         <v>183.789999999999992</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2409,13 +2309,13 @@
         <v>102.590000000000003</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2427,13 +2327,13 @@
         <v>17.1900000000000013</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2445,13 +2345,13 @@
         <v>39.3599999999999994</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2463,13 +2363,13 @@
         <v>68.9599999999999937</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2481,13 +2381,13 @@
         <v>8.75</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2499,13 +2399,13 @@
         <v>6.71999999999999975</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2517,13 +2417,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2535,7 +2435,7 @@
         <v>8.25</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="10"/>
@@ -2544,7 +2444,7 @@
         <v>476.610000000000014</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2556,7 +2456,7 @@
         <v>20.6600000000000001</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E25" s="35" t="n">
         <v>43701</v>
@@ -2564,7 +2464,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2576,13 +2476,13 @@
         <v>30.1700000000000017</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2594,13 +2494,13 @@
         <v>18.370000000000001</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2612,13 +2512,13 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2630,13 +2530,13 @@
         <v>11.0999999999999996</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2648,13 +2548,13 @@
         <v>60.2199999999999989</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2666,7 +2566,7 @@
         <v>8.25</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="10"/>
@@ -2675,7 +2575,7 @@
         <v>154.969999999999999</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2687,7 +2587,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E32" s="35" t="n">
         <v>43702</v>
@@ -2695,7 +2595,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2707,7 +2607,7 @@
         <v>49.1799999999999997</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="10"/>
@@ -2716,7 +2616,7 @@
         <v>69.1800000000000068</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2728,7 +2628,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E34" s="35" t="n">
         <v>43703</v>
@@ -2736,7 +2636,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
       <c r="H34" s="27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2748,13 +2648,13 @@
         <v>14.25</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2766,13 +2666,13 @@
         <v>22.4200000000000017</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2784,13 +2684,13 @@
         <v>10.5800000000000001</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2802,7 +2702,7 @@
         <v>197.740000000000009</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="10"/>
@@ -2811,7 +2711,7 @@
         <v>251.189999999999998</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J38" t="n">
         <v>50</v>
@@ -2826,7 +2726,7 @@
         <v>25.25</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E39" s="35" t="n">
         <v>43704</v>
@@ -2834,7 +2734,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J39" t="n">
         <v>25.25</v>
@@ -2849,13 +2749,13 @@
         <v>6.33000000000000007</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="27" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2867,13 +2767,13 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2885,7 +2785,7 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="10"/>
@@ -2894,7 +2794,7 @@
         <v>83.7600000000000051</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J42" t="n">
         <v>24</v>
@@ -2909,7 +2809,7 @@
         <v>47.5300000000000011</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E43" s="35" t="n">
         <v>43705</v>
@@ -2917,7 +2817,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J43" t="n">
         <v>20</v>
@@ -2932,13 +2832,13 @@
         <v>357.860000000000014</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J44" t="n">
         <v>250</v>
@@ -2953,13 +2853,13 @@
         <v>41.8100000000000023</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2971,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="10"/>
@@ -2980,7 +2880,7 @@
         <v>457.199999999999989</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2992,7 +2892,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E47" s="35" t="n">
         <v>43706</v>
@@ -3000,7 +2900,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="27" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3012,7 +2912,7 @@
         <v>18.2399999999999984</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E48" s="35"/>
       <c r="F48" s="4"/>
@@ -3027,7 +2927,7 @@
         <v>16.1999999999999993</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="4"/>
@@ -3042,7 +2942,7 @@
         <v>3.43999999999999995</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="4"/>
@@ -3057,7 +2957,7 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E51" s="35"/>
       <c r="F51" s="4"/>
@@ -3072,7 +2972,7 @@
         <v>51.4399999999999977</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="4"/>
@@ -3090,7 +2990,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="10"/>
@@ -3108,7 +3008,7 @@
         <v>11.0500000000000007</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E54" s="35" t="n">
         <v>43707</v>
@@ -3125,7 +3025,7 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E55" s="35"/>
       <c r="F55" s="4"/>
@@ -3140,7 +3040,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E56" s="35"/>
       <c r="F56" s="4"/>
@@ -3155,7 +3055,7 @@
         <v>14.8300000000000001</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E57" s="35"/>
       <c r="F57" s="10"/>
@@ -3173,7 +3073,7 @@
         <v>42.1099999999999994</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E58" s="35" t="n">
         <v>43708</v>
@@ -3190,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E59" s="35"/>
       <c r="F59" s="11"/>
@@ -3226,7 +3126,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E61" s="35" t="n">
         <v>43711</v>
@@ -3234,7 +3134,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="5"/>
       <c r="H61" s="27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3246,13 +3146,13 @@
         <v>57.5700000000000003</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="4"/>
       <c r="G62" s="5"/>
       <c r="H62" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3278,7 +3178,7 @@
         <v>59.8999999999999986</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E64" s="35" t="n">
         <v>43713</v>
@@ -3286,7 +3186,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="5"/>
       <c r="H64" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3312,7 +3212,7 @@
         <v>147.060000000000002</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E66" s="35" t="n">
         <v>43714</v>
@@ -3320,7 +3220,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="7"/>
       <c r="H66" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J66" t="n">
         <v>50</v>
@@ -3335,13 +3235,13 @@
         <v>10.4499999999999993</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E67" s="35"/>
       <c r="F67" s="4"/>
       <c r="G67" s="5"/>
       <c r="H67" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3353,13 +3253,13 @@
         <v>10.0099999999999998</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="4"/>
       <c r="G68" s="5"/>
       <c r="H68" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3371,7 +3271,7 @@
         <v>168</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E69" s="35"/>
       <c r="F69" s="4"/>
@@ -3400,7 +3300,7 @@
         <v>20.4699999999999989</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E71" s="35" t="n">
         <v>43715</v>
@@ -3408,7 +3308,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="5"/>
       <c r="H71" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3434,7 +3334,7 @@
         <v>10</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E73" s="35" t="n">
         <v>43716</v>
@@ -3442,7 +3342,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="5"/>
       <c r="H73" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3454,13 +3354,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E74" s="35"/>
       <c r="F74" s="4"/>
       <c r="G74" s="5"/>
       <c r="H74" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3497,7 +3397,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="5"/>
       <c r="H76" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3522,13 +3422,13 @@
         <v>9.25</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E78" s="35"/>
       <c r="F78" s="4"/>
       <c r="G78" s="5"/>
       <c r="H78" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3554,7 +3454,7 @@
         <v>55.8999999999999986</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E80" s="35" t="n">
         <v>43719</v>
@@ -3571,7 +3471,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="4"/>
@@ -3586,7 +3486,7 @@
         <v>16.5</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E82" s="35"/>
       <c r="F82" s="4"/>
@@ -3601,7 +3501,7 @@
         <v>60</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="4"/>
@@ -3630,7 +3530,7 @@
         <v>60.8299999999999983</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E85" s="35" t="n">
         <v>43720</v>
@@ -3661,7 +3561,7 @@
         <v>31.0399999999999991</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E87" s="35" t="n">
         <v>43721</v>
@@ -3669,7 +3569,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="5"/>
       <c r="H87" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J87" t="n">
         <v>20</v>
@@ -3684,13 +3584,13 @@
         <v>60.3400000000000034</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E88" s="35"/>
       <c r="F88" s="4"/>
       <c r="G88" s="5"/>
       <c r="H88" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J88" t="n">
         <v>10</v>
@@ -3705,13 +3605,13 @@
         <v>26.4200000000000017</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E89" s="35"/>
       <c r="F89" s="4"/>
       <c r="G89" s="5"/>
       <c r="H89" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3723,13 +3623,13 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E90" s="35"/>
       <c r="F90" s="4"/>
       <c r="G90" s="5"/>
       <c r="H90" s="27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J90" t="n">
         <v>10</v>
@@ -3744,13 +3644,13 @@
         <v>42.9699999999999989</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E91" s="35"/>
       <c r="F91" s="4"/>
       <c r="G91" s="5"/>
       <c r="H91" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3762,13 +3662,13 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E92" s="35"/>
       <c r="F92" s="4"/>
       <c r="G92" s="5"/>
       <c r="H92" s="27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3777,16 +3677,16 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" t="n">
-        <v>13.9200000000000017</v>
+        <v>13.9199999999999999</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E93" s="35"/>
       <c r="F93" s="4"/>
       <c r="G93" s="5"/>
       <c r="H93" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3812,7 +3712,7 @@
         <v>26</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E95" s="35" t="n">
         <v>43723</v>
@@ -3820,7 +3720,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="5"/>
       <c r="H95" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3832,13 +3732,13 @@
         <v>23</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E96" s="35"/>
       <c r="F96" s="4"/>
       <c r="G96" s="5"/>
       <c r="H96" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3864,7 +3764,7 @@
         <v>1080</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E98" s="35" t="n">
         <v>43725</v>
@@ -3872,7 +3772,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="5"/>
       <c r="H98" s="27" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3884,13 +3784,13 @@
         <v>32</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E99" s="35"/>
       <c r="F99" s="4"/>
       <c r="G99" s="5"/>
       <c r="H99" s="27" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3916,7 +3816,7 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E101" s="35" t="n">
         <v>43726</v>
@@ -3924,7 +3824,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="5"/>
       <c r="H101" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3950,7 +3850,7 @@
         <v>24.7399999999999984</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E103" s="35" t="n">
         <v>43727</v>
@@ -3958,7 +3858,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="5"/>
       <c r="H103" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3987,7 +3887,7 @@
         <v>35.25</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E105" s="35" t="n">
         <v>43728</v>
@@ -3995,7 +3895,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="5"/>
       <c r="H105" s="27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4007,13 +3907,13 @@
         <v>5.58999999999999986</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E106" s="35"/>
       <c r="F106" s="4"/>
       <c r="G106" s="5"/>
       <c r="H106" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4025,13 +3925,13 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E107" s="35"/>
       <c r="F107" s="4"/>
       <c r="G107" s="5"/>
       <c r="H107" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4043,13 +3943,13 @@
         <v>13.8000000000000007</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E108" s="35"/>
       <c r="F108" s="4"/>
       <c r="G108" s="5"/>
       <c r="H108" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4061,13 +3961,13 @@
         <v>25</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E109" s="35"/>
       <c r="F109" s="4"/>
       <c r="G109" s="5"/>
       <c r="H109" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4093,7 +3993,7 @@
         <v>6.90000000000000036</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E111" s="35" t="n">
         <v>43729</v>
@@ -4101,7 +4001,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="5"/>
       <c r="H111" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4113,13 +4013,13 @@
         <v>12.1500000000000004</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="4"/>
       <c r="G112" s="5"/>
       <c r="H112" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4142,10 +4042,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="n">
-        <v>10.3400000000000016</v>
+        <v>10.3399999999999999</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E114" s="35" t="n">
         <v>43731</v>
@@ -4153,7 +4053,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="5"/>
       <c r="H114" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4165,13 +4065,13 @@
         <v>28.629999999999999</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E115" s="35"/>
       <c r="F115" s="4"/>
       <c r="G115" s="5"/>
       <c r="H115" s="27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4183,13 +4083,13 @@
         <v>28.7399999999999984</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E116" s="35"/>
       <c r="F116" s="4"/>
       <c r="G116" s="5"/>
       <c r="H116" s="27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4201,13 +4101,13 @@
         <v>59.7100000000000009</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E117" s="35"/>
       <c r="F117" s="4"/>
       <c r="G117" s="5"/>
       <c r="H117" s="27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J117" t="n">
         <v>20</v>
@@ -4222,13 +4122,13 @@
         <v>27.879999999999999</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E118" s="35"/>
       <c r="F118" s="4"/>
       <c r="G118" s="5"/>
       <c r="H118" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4251,7 +4151,7 @@
         <v>600</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E120" s="35" t="n">
         <v>43733</v>
@@ -4259,7 +4159,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="5"/>
       <c r="H120" s="27" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4270,13 +4170,13 @@
         <v>91</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E121" s="35"/>
       <c r="F121" s="4"/>
       <c r="G121" s="5"/>
       <c r="H121" s="27" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4287,13 +4187,13 @@
         <v>-600</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E122" s="35"/>
       <c r="F122" s="4"/>
       <c r="G122" s="5"/>
       <c r="H122" s="27" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4304,11 +4204,11 @@
         <v>-91</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E123" s="35"/>
       <c r="H123" s="27" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4334,7 +4234,7 @@
         <v>35.0200000000000031</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E125" s="35" t="n">
         <v>43734</v>
@@ -4342,7 +4242,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="5"/>
       <c r="H125" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4354,13 +4254,13 @@
         <v>12.9499999999999993</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E126" s="35"/>
       <c r="F126" s="4"/>
       <c r="G126" s="5"/>
       <c r="H126" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4372,13 +4272,13 @@
         <v>23.6799999999999997</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E127" s="35"/>
       <c r="F127" s="4"/>
       <c r="G127" s="5"/>
       <c r="H127" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4390,13 +4290,13 @@
         <v>3.04000000000000004</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E128" s="35"/>
       <c r="F128" s="4"/>
       <c r="G128" s="18"/>
       <c r="H128" s="27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4408,13 +4308,13 @@
         <v>70.0900000000000034</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E129" s="35"/>
       <c r="F129" s="4"/>
       <c r="G129" s="5"/>
       <c r="H129" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J129" t="n">
         <v>10</v>
@@ -4443,7 +4343,7 @@
         <v>20</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E131" s="35" t="n">
         <v>43735</v>
@@ -4451,7 +4351,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="5"/>
       <c r="H131" s="27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J131" t="n">
         <v>21</v>
@@ -4479,7 +4379,7 @@
         <v>13.4700000000000006</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E133" s="35" t="n">
         <v>43737</v>
@@ -4487,7 +4387,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="5"/>
       <c r="H133" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4513,7 +4413,7 @@
         <v>41.3599999999999994</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E135" s="35" t="n">
         <v>43738</v>
@@ -4521,7 +4421,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="5"/>
       <c r="H135" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J135" t="n">
         <v>10</v>
@@ -4536,16 +4436,16 @@
         <v>14</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E136" s="35"/>
       <c r="F136" s="4"/>
       <c r="G136" s="5"/>
       <c r="H136" s="27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L136" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4582,7 +4482,7 @@
         <v>6.38999999999999968</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E139" s="35" t="n">
         <v>43741</v>
@@ -4590,7 +4490,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="5"/>
       <c r="H139" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4602,13 +4502,13 @@
         <v>160.689999999999998</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E140" s="35"/>
       <c r="F140" s="4"/>
       <c r="G140" s="5"/>
       <c r="H140" s="27" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J140" t="n">
         <v>100</v>
@@ -4637,7 +4537,7 @@
         <v>53.240000000000002</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E142" s="35" t="n">
         <v>43742</v>
@@ -4645,7 +4545,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="5"/>
       <c r="H142" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4657,13 +4557,13 @@
         <v>9</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E143" s="35"/>
       <c r="F143" s="4"/>
       <c r="G143" s="5"/>
       <c r="H143" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4689,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E145" s="35" t="n">
         <v>43743</v>
@@ -4697,7 +4597,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="5"/>
       <c r="H145" s="27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4709,13 +4609,13 @@
         <v>42.2100000000000009</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E146" s="35"/>
       <c r="F146" s="4"/>
       <c r="G146" s="5"/>
       <c r="H146" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4741,7 +4641,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E148" s="35" t="n">
         <v>43747</v>
@@ -4749,7 +4649,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="5"/>
       <c r="H148" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J148" t="n">
         <v>25</v>
@@ -4778,7 +4678,7 @@
         <v>22</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E150" s="35" t="n">
         <v>43748</v>
@@ -4786,7 +4686,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="5"/>
       <c r="H150" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -4797,16 +4697,16 @@
         <v>222.300000000000011</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E151" s="35"/>
       <c r="F151" s="4"/>
       <c r="G151" s="5"/>
       <c r="H151" s="27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L151" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -4817,16 +4717,16 @@
         <v>189.360000000000014</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E152" s="35"/>
       <c r="F152" s="4"/>
       <c r="G152" s="5"/>
       <c r="H152" s="27" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L152" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4837,13 +4737,13 @@
         <v>4.71999999999999975</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E153" s="35"/>
       <c r="F153" s="4"/>
       <c r="G153" s="5"/>
       <c r="H153" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4870,7 +4770,7 @@
         <v>57.4799999999999969</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E155" s="35" t="n">
         <v>43749</v>
@@ -4878,7 +4778,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="5"/>
       <c r="H155" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J155" t="n">
         <v>30</v>
@@ -4893,13 +4793,13 @@
         <v>40.3100000000000023</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E156" s="35"/>
       <c r="F156" s="4"/>
       <c r="G156" s="5"/>
       <c r="H156" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4916,7 +4816,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="5"/>
       <c r="H157" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4927,13 +4827,13 @@
         <v>7.11000000000000032</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E158" s="35"/>
       <c r="F158" s="4"/>
       <c r="G158" s="5"/>
       <c r="H158" s="27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4962,7 +4862,7 @@
         <v>14</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E160" s="35" t="n">
         <v>43750</v>
@@ -4970,7 +4870,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="5"/>
       <c r="H160" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4996,7 +4896,7 @@
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E162" s="35" t="n">
         <v>43751</v>
@@ -5004,7 +4904,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="5"/>
       <c r="H162" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I162" t="n">
         <v>30</v>
@@ -5033,7 +4933,7 @@
         <v>29.9899999999999984</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E164" s="35" t="n">
         <v>43752</v>
@@ -5041,7 +4941,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="5"/>
       <c r="H164" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -5052,19 +4952,19 @@
         <v>530.75</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E165" s="35"/>
       <c r="F165" s="4"/>
       <c r="G165" s="5"/>
       <c r="H165" s="27" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="I165" t="n">
         <v>100</v>
       </c>
       <c r="L165" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5091,7 +4991,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E167" s="35" t="n">
         <v>43754</v>
@@ -5099,7 +4999,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="5"/>
       <c r="H167" s="27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5111,13 +5011,13 @@
         <v>20</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E168" s="35"/>
       <c r="F168" s="4"/>
       <c r="G168" s="5"/>
       <c r="H168" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J168" t="n">
         <v>20</v>
@@ -5144,7 +5044,7 @@
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E170" s="35" t="n">
         <v>43756</v>
@@ -5152,13 +5052,13 @@
       <c r="F170" s="4"/>
       <c r="G170" s="5"/>
       <c r="H170" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I170" t="n">
         <v>21.1900000000000013</v>
       </c>
       <c r="L170" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -5169,16 +5069,16 @@
         <v>11.1600000000000001</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E171" s="35"/>
       <c r="F171" s="4"/>
       <c r="G171" s="5"/>
       <c r="H171" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L171" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -5189,16 +5089,16 @@
         <v>9.25999999999999979</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E172" s="35"/>
       <c r="F172" s="4"/>
       <c r="G172" s="5"/>
       <c r="H172" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L172" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -5209,16 +5109,16 @@
         <v>5.41999999999999993</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E173" s="35"/>
       <c r="F173" s="4"/>
       <c r="G173" s="5"/>
       <c r="H173" s="27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L173" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5243,7 +5143,7 @@
         <v>38.2000000000000028</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E175" s="35" t="n">
         <v>43757</v>
@@ -5251,10 +5151,10 @@
       <c r="F175" s="4"/>
       <c r="G175" s="5"/>
       <c r="H175" s="27" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L175" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -5265,19 +5165,19 @@
         <v>67.5400000000000063</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E176" s="35"/>
       <c r="F176" s="4"/>
       <c r="G176" s="5"/>
       <c r="H176" s="27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I176" t="n">
         <v>67.5400000000000063</v>
       </c>
       <c r="L176" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -5288,16 +5188,16 @@
         <v>9.48000000000000043</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E177" s="35"/>
       <c r="F177" s="4"/>
       <c r="G177" s="5"/>
       <c r="H177" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L177" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -5308,16 +5208,16 @@
         <v>5.40000000000000036</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E178" s="35"/>
       <c r="F178" s="4"/>
       <c r="G178" s="5"/>
       <c r="H178" s="27" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L178" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -5328,19 +5228,19 @@
         <v>18.25</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E179" s="35"/>
       <c r="F179" s="4"/>
       <c r="G179" s="5"/>
       <c r="H179" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I179" t="n">
         <v>18.25</v>
       </c>
       <c r="L179" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5366,7 +5266,7 @@
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E181" s="35" t="n">
         <v>43758</v>
@@ -5374,10 +5274,10 @@
       <c r="F181" s="4"/>
       <c r="G181" s="5"/>
       <c r="H181" s="27" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L181" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -5388,19 +5288,19 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E182" s="35"/>
       <c r="F182" s="4"/>
       <c r="G182" s="5"/>
       <c r="H182" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I182" t="n">
         <v>11.5399999999999991</v>
       </c>
       <c r="L182" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -5411,19 +5311,19 @@
         <v>12.8000000000000007</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E183" s="35"/>
       <c r="F183" s="4"/>
       <c r="G183" s="5"/>
       <c r="H183" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I183" t="n">
         <v>12.8000000000000007</v>
       </c>
       <c r="L183" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5449,7 +5349,7 @@
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E185" s="35" t="n">
         <v>43759</v>
@@ -5457,13 +5357,13 @@
       <c r="F185" s="4"/>
       <c r="G185" s="5"/>
       <c r="H185" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I185" t="n">
         <v>16.6999999999999993</v>
       </c>
       <c r="L185" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -5474,16 +5374,16 @@
         <v>15</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E186" s="35"/>
       <c r="F186" s="4"/>
       <c r="G186" s="5"/>
       <c r="H186" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L186" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5518,10 +5418,10 @@
         <v>43.4399999999999977</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H189" s="27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J189" t="n">
         <v>43.4399999999999977</v>
@@ -5544,13 +5444,13 @@
         <v>27.5100000000000016</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E191" s="33" t="n">
         <v>43761</v>
       </c>
       <c r="H191" s="27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J191" t="n">
         <v>27.5100000000000016</v>
@@ -5565,10 +5465,10 @@
         <v>43.5200000000000031</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H192" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5588,13 +5488,13 @@
         <v>4.79999999999999982</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E194" s="33" t="n">
         <v>43763</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -5606,10 +5506,10 @@
         <v>48.2700000000000031</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J195" t="n">
         <v>48.2700000000000031</v>
@@ -5636,13 +5536,13 @@
         <v>8.67999999999999794</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E198" s="33" t="n">
         <v>43765</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -5658,16 +5558,16 @@
         <v>22</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E200" s="33" t="n">
         <v>43766</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L200" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:1">
@@ -5702,16 +5602,16 @@
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E205" s="33" t="n">
         <v>43768</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L205" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5731,16 +5631,16 @@
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E207" s="33" t="n">
         <v>43769</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L207" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5760,16 +5660,16 @@
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E209" s="33" t="n">
         <v>43770</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L209" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5793,19 +5693,19 @@
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E211" s="33" t="n">
         <v>43773</v>
       </c>
       <c r="H211" s="27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I211" t="n">
         <v>21.2199999999999989</v>
       </c>
       <c r="L211" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5830,7 +5730,7 @@
         <v>30.2300000000000004</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E213" s="35" t="n">
         <v>43774</v>
@@ -5838,7 +5738,7 @@
       <c r="F213" s="4"/>
       <c r="G213" s="5"/>
       <c r="H213" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5849,13 +5749,13 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E214" s="35"/>
       <c r="F214" s="4"/>
       <c r="G214" s="5"/>
       <c r="H214" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5881,7 +5781,7 @@
         <v>126.400000000000006</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E216" s="35" t="n">
         <v>43775</v>
@@ -5889,7 +5789,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="5"/>
       <c r="H216" s="27" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J216" t="n">
         <v>30</v>
@@ -5904,13 +5804,13 @@
         <v>13.2699999999999996</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E217" s="35"/>
       <c r="F217" s="4"/>
       <c r="G217" s="5"/>
       <c r="H217" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5936,7 +5836,7 @@
         <v>79.1700000000000017</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E219" s="35" t="n">
         <v>43777</v>
@@ -5944,7 +5844,7 @@
       <c r="F219" s="4"/>
       <c r="G219" s="5"/>
       <c r="H219" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J219" t="n">
         <v>50</v>
@@ -5973,7 +5873,7 @@
         <v>44.0499999999999972</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E221" s="35" t="n">
         <v>43778</v>
@@ -5981,7 +5881,7 @@
       <c r="F221" s="4"/>
       <c r="G221" s="5"/>
       <c r="H221" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6007,7 +5907,7 @@
         <v>93.1299999999999955</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E223" s="35" t="n">
         <v>43784</v>
@@ -6015,7 +5915,7 @@
       <c r="F223" s="4"/>
       <c r="G223" s="5"/>
       <c r="H223" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J223" t="n">
         <v>60</v>
@@ -6030,13 +5930,13 @@
         <v>53.9799999999999969</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E224" s="35"/>
       <c r="F224" s="4"/>
       <c r="G224" s="5"/>
       <c r="H224" s="27" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -6048,13 +5948,13 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E225" s="35"/>
       <c r="F225" s="4"/>
       <c r="G225" s="5"/>
       <c r="H225" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J225" t="n">
         <v>4</v>
@@ -6069,13 +5969,13 @@
         <v>2.29999999999999982</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E226" s="35"/>
       <c r="F226" s="4"/>
       <c r="G226" s="5"/>
       <c r="H226" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6101,7 +6001,7 @@
         <v>29.129999999999999</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E228" s="35" t="n">
         <v>43785</v>
@@ -6109,7 +6009,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="5"/>
       <c r="H228" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6121,13 +6021,13 @@
         <v>61.1000000000000014</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E229" s="35"/>
       <c r="F229" s="4"/>
       <c r="G229" s="5"/>
       <c r="H229" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6153,7 +6053,7 @@
         <v>80</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E231" s="35" t="n">
         <v>43786</v>
@@ -6161,7 +6061,7 @@
       <c r="F231" s="4"/>
       <c r="G231" s="5"/>
       <c r="H231" s="27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6173,13 +6073,13 @@
         <v>140</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E232" s="35"/>
       <c r="F232" s="4"/>
       <c r="G232" s="5"/>
       <c r="H232" s="27" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -6191,13 +6091,13 @@
         <v>33.3500000000000014</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E233" s="35"/>
       <c r="F233" s="4"/>
       <c r="G233" s="5"/>
       <c r="H233" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J233" t="n">
         <v>33.3500000000000014</v>
@@ -6226,7 +6126,7 @@
         <v>37</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E235" s="35" t="n">
         <v>43791</v>
@@ -6234,10 +6134,10 @@
       <c r="F235" s="4"/>
       <c r="G235" s="5"/>
       <c r="H235" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L235" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -6249,16 +6149,16 @@
         <v>25.0100000000000016</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E236" s="35"/>
       <c r="F236" s="4"/>
       <c r="G236" s="5"/>
       <c r="H236" s="27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L236" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -6270,16 +6170,16 @@
         <v>-37</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E237" s="35"/>
       <c r="F237" s="4"/>
       <c r="G237" s="5"/>
       <c r="H237" s="27" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L237" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -6291,16 +6191,16 @@
         <v>105</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E238" s="35"/>
       <c r="F238" s="4"/>
       <c r="G238" s="5"/>
       <c r="H238" s="27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L238" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6326,7 +6226,7 @@
         <v>80.6400000000000006</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E240" s="35" t="n">
         <v>43797</v>
@@ -6334,7 +6234,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="5"/>
       <c r="H240" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J240" t="n">
         <v>6</v>
@@ -6349,13 +6249,13 @@
         <v>16</v>
       </c>
       <c r="D241" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E241" s="35"/>
       <c r="F241" s="4"/>
       <c r="G241" s="5"/>
       <c r="H241" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J241" t="n">
         <v>16</v>
@@ -6369,13 +6269,13 @@
         <v>30</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E242" s="35"/>
       <c r="F242" s="4"/>
       <c r="G242" s="5"/>
       <c r="H242" s="27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I242" t="n">
         <v>30</v>
@@ -6390,13 +6290,13 @@
         <v>24</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E243" s="35"/>
       <c r="F243" s="4"/>
       <c r="G243" s="5"/>
       <c r="H243" s="27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J243" t="n">
         <v>24</v>
@@ -6411,13 +6311,13 @@
         <v>35</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E244" s="35"/>
       <c r="F244" s="4"/>
       <c r="G244" s="5"/>
       <c r="H244" s="27" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J244" t="n">
         <v>35</v>
@@ -6449,7 +6349,7 @@
         <v>17.25</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E246" s="35" t="n">
         <v>43798</v>
@@ -6457,7 +6357,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="5"/>
       <c r="H246" s="27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6469,13 +6369,13 @@
         <v>29.1600000000000001</v>
       </c>
       <c r="D247" s="19" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E247" s="35"/>
       <c r="F247" s="4"/>
       <c r="G247" s="5"/>
       <c r="H247" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6515,7 +6415,7 @@
         <v>190.849999999999994</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E250" s="35" t="n">
         <v>43800</v>
@@ -6523,7 +6423,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="5"/>
       <c r="H250" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -6552,7 +6452,7 @@
         <v>10</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E252" s="35" t="n">
         <v>43802</v>
@@ -6560,7 +6460,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="5"/>
       <c r="H252" s="27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -6572,13 +6472,13 @@
         <v>15</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E253" s="35"/>
       <c r="F253" s="4"/>
       <c r="G253" s="5"/>
       <c r="H253" s="27" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J253" t="n">
         <v>15</v>
@@ -6607,7 +6507,7 @@
         <v>109.060000000000002</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E255" s="35" t="n">
         <v>43804</v>
@@ -6615,7 +6515,7 @@
       <c r="F255" s="4"/>
       <c r="G255" s="5"/>
       <c r="H255" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6627,13 +6527,13 @@
         <v>-30</v>
       </c>
       <c r="D256" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E256" s="35"/>
       <c r="F256" s="4"/>
       <c r="G256" s="5"/>
       <c r="H256" s="27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -6645,13 +6545,13 @@
         <v>124.489999999999995</v>
       </c>
       <c r="D257" s="19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E257" s="35"/>
       <c r="F257" s="4"/>
       <c r="G257" s="5"/>
       <c r="H257" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6677,7 +6577,7 @@
         <v>95.0100000000000051</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E259" s="35" t="n">
         <v>43808</v>
@@ -6685,7 +6585,7 @@
       <c r="F259" s="4"/>
       <c r="G259" s="5"/>
       <c r="H259" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6711,7 +6611,7 @@
         <v>13.25</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E261" s="35" t="n">
         <v>43809</v>
@@ -6719,7 +6619,7 @@
       <c r="F261" s="4"/>
       <c r="G261" s="5"/>
       <c r="H261" s="27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -6744,7 +6644,7 @@
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E263" s="35" t="n">
         <v>43811</v>
@@ -6752,7 +6652,7 @@
       <c r="F263" s="4"/>
       <c r="G263" s="5"/>
       <c r="H263" s="29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -6764,13 +6664,13 @@
         <v>5</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E264" s="35"/>
       <c r="F264" s="4"/>
       <c r="G264" s="5"/>
       <c r="H264" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -6782,13 +6682,13 @@
         <v>20</v>
       </c>
       <c r="D265" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E265" s="35"/>
       <c r="F265" s="4"/>
       <c r="G265" s="5"/>
       <c r="H265" s="29" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -6811,10 +6711,10 @@
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="3" t="n">
-        <v>11.4200000000000017</v>
+        <v>11.4199999999999999</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E267" s="35" t="n">
         <v>43814</v>
@@ -6822,7 +6722,7 @@
       <c r="F267" s="4"/>
       <c r="G267" s="5"/>
       <c r="H267" s="29" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -6834,13 +6734,13 @@
         <v>11.5</v>
       </c>
       <c r="D268" s="19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E268" s="35"/>
       <c r="F268" s="4"/>
       <c r="G268" s="5"/>
       <c r="H268" s="29" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -6866,7 +6766,7 @@
         <v>5.45999999999999996</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E270" s="35" t="n">
         <v>43815</v>
@@ -6874,7 +6774,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="5"/>
       <c r="H270" s="29" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -6886,13 +6786,13 @@
         <v>60.1700000000000017</v>
       </c>
       <c r="D271" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E271" s="35"/>
       <c r="F271" s="4"/>
       <c r="G271" s="5"/>
       <c r="H271" s="29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -6904,13 +6804,13 @@
         <v>21.620000000000001</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E272" s="35"/>
       <c r="F272" s="4"/>
       <c r="G272" s="5"/>
       <c r="H272" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -6922,13 +6822,13 @@
         <v>-10</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E273" s="35"/>
       <c r="F273" s="4"/>
       <c r="G273" s="5"/>
       <c r="H273" s="29" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -6954,7 +6854,7 @@
         <v>40</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E275" s="35" t="n">
         <v>43816</v>
@@ -6962,7 +6862,7 @@
       <c r="F275" s="4"/>
       <c r="G275" s="5"/>
       <c r="H275" s="29" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -6988,7 +6888,7 @@
         <v>73.5900000000000034</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E277" s="35" t="n">
         <v>43817</v>
@@ -6996,7 +6896,7 @@
       <c r="F277" s="4"/>
       <c r="G277" s="5"/>
       <c r="H277" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7022,7 +6922,7 @@
         <v>25.75</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E279" s="35" t="n">
         <v>43818</v>
@@ -7030,7 +6930,7 @@
       <c r="F279" s="4"/>
       <c r="G279" s="5"/>
       <c r="H279" s="29" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7042,13 +6942,13 @@
         <v>-12</v>
       </c>
       <c r="D280" s="19" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E280" s="35"/>
       <c r="F280" s="4"/>
       <c r="G280" s="5"/>
       <c r="H280" s="29" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7060,13 +6960,13 @@
         <v>227.629999999999995</v>
       </c>
       <c r="D281" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E281" s="35"/>
       <c r="F281" s="4"/>
       <c r="G281" s="5"/>
       <c r="H281" s="29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -7094,7 +6994,7 @@
         <v>39.0700000000000003</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E283" s="35" t="n">
         <v>43821</v>
@@ -7102,7 +7002,7 @@
       <c r="F283" s="4"/>
       <c r="G283" s="5"/>
       <c r="H283" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7114,13 +7014,13 @@
         <v>39.6700000000000017</v>
       </c>
       <c r="D284" s="19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E284" s="35"/>
       <c r="F284" s="4"/>
       <c r="G284" s="5"/>
       <c r="H284" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7132,13 +7032,13 @@
         <v>114.680000000000007</v>
       </c>
       <c r="D285" s="19" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E285" s="35"/>
       <c r="F285" s="4"/>
       <c r="G285" s="5"/>
       <c r="H285" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -7150,16 +7050,16 @@
         <v>-114</v>
       </c>
       <c r="D286" s="19" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E286" s="35"/>
       <c r="F286" s="4"/>
       <c r="G286" s="5"/>
       <c r="H286" s="29" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K286" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7171,11 +7071,11 @@
         <v>-39</v>
       </c>
       <c r="D287" s="19" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E287" s="35"/>
       <c r="H287" s="29" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7201,7 +7101,7 @@
         <v>1080</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E289" s="35" t="n">
         <v>43824</v>
@@ -7209,7 +7109,7 @@
       <c r="F289" s="4"/>
       <c r="G289" s="5"/>
       <c r="H289" s="29" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7221,13 +7121,13 @@
         <v>-185.849999999999994</v>
       </c>
       <c r="D290" s="19" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E290" s="35"/>
       <c r="F290" s="4"/>
       <c r="G290" s="5"/>
       <c r="H290" s="29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7239,13 +7139,13 @@
         <v>65.5400000000000063</v>
       </c>
       <c r="D291" s="19" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E291" s="35"/>
       <c r="F291" s="4"/>
       <c r="G291" s="5"/>
       <c r="H291" s="29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7273,7 +7173,7 @@
         <v>12.75</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E293" s="35" t="n">
         <v>43825</v>
@@ -7281,7 +7181,7 @@
       <c r="F293" s="4"/>
       <c r="G293" s="5"/>
       <c r="H293" s="29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -7293,13 +7193,13 @@
         <v>57.9200000000000017</v>
       </c>
       <c r="D294" s="19" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E294" s="35"/>
       <c r="F294" s="4"/>
       <c r="G294" s="5"/>
       <c r="H294" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -7311,13 +7211,13 @@
         <v>9</v>
       </c>
       <c r="D295" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E295" s="35"/>
       <c r="F295" s="4"/>
       <c r="G295" s="5"/>
       <c r="H295" s="29" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7329,13 +7229,13 @@
         <v>33.4699999999999989</v>
       </c>
       <c r="D296" s="19" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E296" s="35"/>
       <c r="F296" s="4"/>
       <c r="G296" s="5"/>
       <c r="H296" s="29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -7361,7 +7261,7 @@
         <v>45.3800000000000026</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E298" s="35" t="n">
         <v>43830</v>
@@ -7369,7 +7269,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="5"/>
       <c r="H298" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -7380,13 +7280,13 @@
         <v>-24</v>
       </c>
       <c r="D299" s="19" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E299" s="35"/>
       <c r="F299" s="4"/>
       <c r="G299" s="5"/>
       <c r="H299" s="29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -7414,7 +7314,7 @@
         <v>20</v>
       </c>
       <c r="D301" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E301" s="35" t="n">
         <v>43831</v>
@@ -7422,7 +7322,7 @@
       <c r="F301" s="4"/>
       <c r="G301" s="5"/>
       <c r="H301" s="29" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -7450,7 +7350,7 @@
         <v>51.2899999999999991</v>
       </c>
       <c r="D303" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E303" s="35" t="n">
         <v>43835</v>
@@ -7458,7 +7358,7 @@
       <c r="F303" s="4"/>
       <c r="G303" s="5"/>
       <c r="H303" s="19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -7484,7 +7384,7 @@
         <v>22.2800000000000011</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E305" s="35" t="n">
         <v>43838</v>
@@ -7492,7 +7392,7 @@
       <c r="F305" s="4"/>
       <c r="G305" s="5"/>
       <c r="H305" s="30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -7518,7 +7418,7 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E307" s="35" t="n">
         <v>43839</v>
@@ -7526,7 +7426,7 @@
       <c r="F307" s="4"/>
       <c r="G307" s="5"/>
       <c r="H307" s="29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -7538,13 +7438,13 @@
         <v>6.70000000000000018</v>
       </c>
       <c r="D308" s="19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E308" s="36"/>
       <c r="F308" s="4"/>
       <c r="G308" s="5"/>
       <c r="H308" s="29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -7571,7 +7471,7 @@
         <v>58.1300000000000026</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E310" s="35" t="n">
         <v>43840</v>
@@ -7579,7 +7479,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="5"/>
       <c r="H310" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -7605,7 +7505,7 @@
         <v>20</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E312" s="35" t="n">
         <v>43841</v>
@@ -7613,10 +7513,10 @@
       <c r="F312" s="4"/>
       <c r="G312" s="5"/>
       <c r="H312" s="29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K312" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -7642,7 +7542,7 @@
         <v>63.1400000000000006</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E314" s="35" t="n">
         <v>43844</v>
@@ -7650,7 +7550,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="5"/>
       <c r="H314" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -7676,7 +7576,7 @@
         <v>7.20000000000000018</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E316" s="35" t="n">
         <v>43845</v>
@@ -7684,10 +7584,10 @@
       <c r="F316" s="4"/>
       <c r="G316" s="5"/>
       <c r="H316" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K316" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -7699,13 +7599,13 @@
         <v>54.8299999999999983</v>
       </c>
       <c r="D317" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E317" s="35"/>
       <c r="F317" s="4"/>
       <c r="G317" s="5"/>
       <c r="H317" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -7731,7 +7631,7 @@
         <v>547</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E319" s="35" t="n">
         <v>43846</v>
@@ -7739,10 +7639,10 @@
       <c r="F319" s="4"/>
       <c r="G319" s="5"/>
       <c r="H319" s="29" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="L319" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -7754,13 +7654,13 @@
         <v>6.09999999999999964</v>
       </c>
       <c r="D320" s="19" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E320" s="35"/>
       <c r="F320" s="4"/>
       <c r="G320" s="5"/>
       <c r="H320" s="29" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -7786,7 +7686,7 @@
         <v>16.9400000000000013</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E322" s="35" t="n">
         <v>43848</v>
@@ -7794,7 +7694,7 @@
       <c r="F322" s="4"/>
       <c r="G322" s="5"/>
       <c r="H322" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -7820,7 +7720,7 @@
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E324" s="35" t="n">
         <v>43850</v>
@@ -7828,7 +7728,7 @@
       <c r="F324" s="4"/>
       <c r="G324" s="5"/>
       <c r="H324" s="29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -7840,13 +7740,13 @@
         <v>147</v>
       </c>
       <c r="D325" s="19" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E325" s="35"/>
       <c r="F325" s="4"/>
       <c r="G325" s="5"/>
       <c r="H325" s="29" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -7872,7 +7772,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E327" s="35" t="n">
         <v>43855</v>
@@ -7880,7 +7780,7 @@
       <c r="F327" s="4"/>
       <c r="G327" s="5"/>
       <c r="H327" s="29" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -7898,7 +7798,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="5"/>
       <c r="H328" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -7924,7 +7824,7 @@
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E330" s="35" t="n">
         <v>43856</v>
@@ -7932,7 +7832,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="5"/>
       <c r="H330" s="29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -7944,13 +7844,13 @@
         <v>88.9599999999999937</v>
       </c>
       <c r="D331" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E331" s="35"/>
       <c r="F331" s="4"/>
       <c r="G331" s="5"/>
       <c r="H331" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -7962,13 +7862,13 @@
         <v>174.69999999999996</v>
       </c>
       <c r="D332" s="19" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E332" s="35"/>
       <c r="F332" s="4"/>
       <c r="G332" s="5"/>
       <c r="H332" s="29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -7994,7 +7894,7 @@
         <v>12</v>
       </c>
       <c r="D334" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E334" s="35" t="n">
         <v>43859</v>
@@ -8002,7 +7902,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="5"/>
       <c r="H334" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -8028,7 +7928,7 @@
         <v>9.25</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E336" s="35" t="n">
         <v>43860</v>
@@ -8036,7 +7936,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="5"/>
       <c r="H336" s="29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -8048,13 +7948,13 @@
         <v>3.79000000000000004</v>
       </c>
       <c r="D337" s="19" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E337" s="35"/>
       <c r="F337" s="4"/>
       <c r="G337" s="5"/>
       <c r="H337" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -8080,7 +7980,7 @@
         <v>9.47000000000000064</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E339" s="35" t="n">
         <v>43863</v>
@@ -8098,7 +7998,7 @@
         <v>13.7899999999999991</v>
       </c>
       <c r="D340" s="19" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E340" s="35"/>
       <c r="F340" s="4"/>
@@ -8128,7 +8028,7 @@
         <v>11.75</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E342" s="35" t="n">
         <v>43864</v>
@@ -8160,7 +8060,7 @@
         <v>6</v>
       </c>
       <c r="D344" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E344" s="35" t="n">
         <v>43865</v>
@@ -8192,7 +8092,7 @@
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="20" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E346" s="35" t="n">
         <v>43866</v>
@@ -8200,7 +8100,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="5"/>
       <c r="H346" s="29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8226,7 +8126,7 @@
         <v>16</v>
       </c>
       <c r="D348" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E348" s="35" t="n">
         <v>43867</v>
@@ -8234,10 +8134,10 @@
       <c r="F348" s="4"/>
       <c r="G348" s="5"/>
       <c r="H348" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L348" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -8248,16 +8148,16 @@
         <v>20</v>
       </c>
       <c r="D349" s="19" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E349" s="35"/>
       <c r="F349" s="4"/>
       <c r="G349" s="5"/>
       <c r="H349" s="29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L349" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -8268,16 +8168,16 @@
         <v>9.58999999999999986</v>
       </c>
       <c r="D350" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E350" s="35"/>
       <c r="F350" s="4"/>
       <c r="G350" s="5"/>
       <c r="H350" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L350" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -8303,7 +8203,7 @@
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E352" s="35" t="n">
         <v>43868</v>
@@ -8311,10 +8211,10 @@
       <c r="F352" s="4"/>
       <c r="G352" s="5"/>
       <c r="H352" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L352" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -8331,10 +8231,10 @@
       <c r="F353" s="4"/>
       <c r="G353" s="5"/>
       <c r="H353" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L353" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -8360,7 +8260,7 @@
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E355" s="35" t="n">
         <v>43869</v>
@@ -8368,10 +8268,10 @@
       <c r="F355" s="4"/>
       <c r="G355" s="5"/>
       <c r="H355" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L355" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -8397,7 +8297,7 @@
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E357" s="35" t="n">
         <v>43870</v>
@@ -8405,10 +8305,10 @@
       <c r="F357" s="4"/>
       <c r="G357" s="5"/>
       <c r="H357" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L357" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -8419,16 +8319,16 @@
         <v>3.5</v>
       </c>
       <c r="D358" s="19" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E358" s="35"/>
       <c r="F358" s="4"/>
       <c r="G358" s="5"/>
       <c r="H358" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L358" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -8454,7 +8354,7 @@
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="20" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E360" s="35" t="n">
         <v>43871</v>
@@ -8462,10 +8362,10 @@
       <c r="F360" s="4"/>
       <c r="G360" s="5"/>
       <c r="H360" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L360" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -8491,7 +8391,7 @@
         <v>10</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E362" s="35" t="n">
         <v>43873</v>
@@ -8499,7 +8399,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="5"/>
       <c r="H362" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -8525,7 +8425,7 @@
         <v>4</v>
       </c>
       <c r="D364" s="20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E364" s="35" t="n">
         <v>43874</v>
@@ -8533,7 +8433,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="5"/>
       <c r="H364" s="29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -8559,7 +8459,7 @@
         <v>102.959999999999994</v>
       </c>
       <c r="D366" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E366" s="35" t="n">
         <v>43875</v>
@@ -8567,7 +8467,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="5"/>
       <c r="H366" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -8593,7 +8493,7 @@
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E368" s="35" t="n">
         <v>43876</v>
@@ -8601,7 +8501,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="5"/>
       <c r="H368" s="29" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -8613,13 +8513,13 @@
         <v>116</v>
       </c>
       <c r="D369" s="19" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E369" s="35"/>
       <c r="F369" s="4"/>
       <c r="G369" s="5"/>
       <c r="H369" s="29" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -8645,7 +8545,7 @@
         <v>32.8400000000000034</v>
       </c>
       <c r="D371" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E371" s="35" t="n">
         <v>43878</v>
@@ -8653,7 +8553,7 @@
       <c r="F371" s="4"/>
       <c r="G371" s="5"/>
       <c r="H371" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -8679,7 +8579,7 @@
         <v>7</v>
       </c>
       <c r="D373" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E373" s="35" t="n">
         <v>43880</v>
@@ -8687,7 +8587,7 @@
       <c r="F373" s="4"/>
       <c r="G373" s="5"/>
       <c r="H373" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -8713,7 +8613,7 @@
         <v>14.2200000000000006</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E375" s="35" t="n">
         <v>43887</v>
@@ -8721,7 +8621,7 @@
       <c r="F375" s="4"/>
       <c r="G375" s="5"/>
       <c r="H375" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -8733,13 +8633,13 @@
         <v>59.5499999999999972</v>
       </c>
       <c r="D376" s="19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E376" s="35"/>
       <c r="F376" s="4"/>
       <c r="G376" s="5"/>
       <c r="H376" s="29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -8765,7 +8665,7 @@
         <v>56.1799999999999997</v>
       </c>
       <c r="D378" s="20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E378" s="35" t="n">
         <v>43888</v>
@@ -8773,7 +8673,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="5"/>
       <c r="H378" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -8799,7 +8699,7 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D380" s="20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E380" s="35" t="n">
         <v>43890</v>
@@ -8807,7 +8707,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="5"/>
       <c r="H380" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -8833,7 +8733,7 @@
         <v>1080</v>
       </c>
       <c r="D382" s="20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E382" s="35" t="n">
         <v>43891</v>
@@ -8841,7 +8741,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="5"/>
       <c r="H382" s="29" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -8867,7 +8767,7 @@
         <v>60.259999999999998</v>
       </c>
       <c r="D384" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E384" s="35" t="n">
         <v>43892</v>
@@ -8875,7 +8775,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="5"/>
       <c r="H384" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -8887,13 +8787,13 @@
         <v>41.8999999999999986</v>
       </c>
       <c r="D385" s="19" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E385" s="35"/>
       <c r="F385" s="4"/>
       <c r="G385" s="5"/>
       <c r="H385" s="29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -8905,13 +8805,13 @@
         <v>40</v>
       </c>
       <c r="D386" s="19" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E386" s="35"/>
       <c r="F386" s="4"/>
       <c r="G386" s="5"/>
       <c r="H386" s="29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -8923,13 +8823,13 @@
         <v>1.5</v>
       </c>
       <c r="D387" s="19" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E387" s="35"/>
       <c r="F387" s="4"/>
       <c r="G387" s="5"/>
       <c r="H387" s="29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -8955,7 +8855,7 @@
         <v>48.2999999999999972</v>
       </c>
       <c r="D389" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E389" s="35" t="n">
         <v>43894</v>
@@ -8963,10 +8863,10 @@
       <c r="F389" s="4"/>
       <c r="G389" s="5"/>
       <c r="H389" s="29" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L389" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -8978,16 +8878,16 @@
         <v>44</v>
       </c>
       <c r="D390" s="19" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E390" s="35"/>
       <c r="F390" s="4"/>
       <c r="G390" s="5"/>
       <c r="H390" s="29" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L390" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -8998,13 +8898,13 @@
         <v>-48</v>
       </c>
       <c r="D391" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H391" s="27" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L391" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -9016,14 +8916,14 @@
         <v>-44</v>
       </c>
       <c r="D392" s="19" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E392" s="35"/>
       <c r="H392" s="27" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L392" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -9049,7 +8949,7 @@
         <v>19.5</v>
       </c>
       <c r="D394" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E394" s="35" t="n">
         <v>43895</v>
@@ -9057,10 +8957,10 @@
       <c r="F394" s="4"/>
       <c r="G394" s="5"/>
       <c r="H394" s="29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L394" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -9072,14 +8972,14 @@
         <v>176.719999999999999</v>
       </c>
       <c r="D395" s="19" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E395" s="35"/>
       <c r="F395" s="4"/>
       <c r="G395" s="5"/>
       <c r="H395" s="29"/>
       <c r="L395" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -9091,7 +8991,7 @@
         <v>-176.719999999999999</v>
       </c>
       <c r="D396" s="19" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E396" s="35"/>
       <c r="F396" s="10" t="n">
@@ -9101,10 +9001,10 @@
         <v>196.219999999999999</v>
       </c>
       <c r="H396" s="29" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L396" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -9116,7 +9016,7 @@
         <v>15.2300000000000004</v>
       </c>
       <c r="D397" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E397" s="35" t="n">
         <v>43896</v>
@@ -9124,10 +9024,10 @@
       <c r="F397" s="4"/>
       <c r="G397" s="5"/>
       <c r="H397" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L397" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -9139,16 +9039,16 @@
         <v>6.66000000000000014</v>
       </c>
       <c r="D398" s="19" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E398" s="35"/>
       <c r="F398" s="4"/>
       <c r="G398" s="5"/>
       <c r="H398" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L398" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -9174,7 +9074,7 @@
         <v>6</v>
       </c>
       <c r="D400" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E400" s="35" t="n">
         <v>43897</v>
@@ -9182,10 +9082,10 @@
       <c r="F400" s="4"/>
       <c r="G400" s="5"/>
       <c r="H400" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L400" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -9211,7 +9111,7 @@
         <v>82.7900000000000063</v>
       </c>
       <c r="D402" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E402" s="35" t="n">
         <v>43898</v>
@@ -9219,10 +9119,10 @@
       <c r="F402" s="4"/>
       <c r="G402" s="5"/>
       <c r="H402" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L402" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -9248,7 +9148,7 @@
         <v>32.8299999999999983</v>
       </c>
       <c r="D404" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E404" s="35" t="n">
         <v>43900</v>
@@ -9256,7 +9156,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="5"/>
       <c r="H404" s="29" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -9268,13 +9168,13 @@
         <v>41.8400000000000034</v>
       </c>
       <c r="D405" s="19" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E405" s="35"/>
       <c r="F405" s="4"/>
       <c r="G405" s="5"/>
       <c r="H405" s="29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -9300,7 +9200,7 @@
         <v>8</v>
       </c>
       <c r="D407" s="20" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E407" s="35" t="n">
         <v>43901</v>
@@ -9308,7 +9208,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="5"/>
       <c r="H407" s="29" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -9320,13 +9220,13 @@
         <v>15.4000000000000004</v>
       </c>
       <c r="D408" s="19" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E408" s="35"/>
       <c r="F408" s="4"/>
       <c r="G408" s="5"/>
       <c r="H408" s="29" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -9338,13 +9238,13 @@
         <v>14.8699999999999992</v>
       </c>
       <c r="D409" s="19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E409" s="35"/>
       <c r="F409" s="4"/>
       <c r="G409" s="5"/>
       <c r="H409" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -9370,7 +9270,7 @@
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E411" s="35" t="n">
         <v>43903</v>
@@ -9378,10 +9278,10 @@
       <c r="F411" s="4"/>
       <c r="G411" s="5"/>
       <c r="H411" s="29" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L411" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -9407,7 +9307,7 @@
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E413" s="35" t="n">
         <v>43904</v>
@@ -9415,10 +9315,10 @@
       <c r="F413" s="4"/>
       <c r="G413" s="5"/>
       <c r="H413" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L413" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -9429,16 +9329,16 @@
         <v>10.5099999999999998</v>
       </c>
       <c r="D414" s="19" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E414" s="35"/>
       <c r="F414" s="4"/>
       <c r="G414" s="5"/>
       <c r="H414" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L414" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9449,16 +9349,16 @@
         <v>10</v>
       </c>
       <c r="D415" s="19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E415" s="35"/>
       <c r="F415" s="4"/>
       <c r="G415" s="5"/>
       <c r="H415" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L415" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -9484,7 +9384,7 @@
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E417" s="35" t="n">
         <v>43905</v>
@@ -9492,10 +9392,10 @@
       <c r="F417" s="4"/>
       <c r="G417" s="5"/>
       <c r="H417" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L417" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -9506,16 +9406,16 @@
         <v>-2.5</v>
       </c>
       <c r="D418" s="19" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E418" s="35"/>
       <c r="F418" s="4"/>
       <c r="G418" s="5"/>
       <c r="H418" s="29" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L418" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -9526,16 +9426,16 @@
         <v>10.8000000000000007</v>
       </c>
       <c r="D419" s="19" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E419" s="35"/>
       <c r="F419" s="4"/>
       <c r="G419" s="5"/>
       <c r="H419" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L419" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -9561,7 +9461,7 @@
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E421" s="35" t="n">
         <v>43906</v>
@@ -9569,10 +9469,10 @@
       <c r="F421" s="4"/>
       <c r="G421" s="5"/>
       <c r="H421" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L421" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -9608,7 +9508,7 @@
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E424" s="35" t="n">
         <v>43907</v>
@@ -9616,10 +9516,10 @@
       <c r="F424" s="4"/>
       <c r="G424" s="5"/>
       <c r="H424" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L424" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -9630,16 +9530,16 @@
         <v>-20.1999999999999993</v>
       </c>
       <c r="D425" s="19" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E425" s="35"/>
       <c r="F425" s="4"/>
       <c r="G425" s="5"/>
       <c r="H425" s="29" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L425" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -9675,7 +9575,7 @@
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E428" s="35" t="n">
         <v>43908</v>
@@ -9683,10 +9583,10 @@
       <c r="F428" s="4"/>
       <c r="G428" s="5"/>
       <c r="H428" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L428" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -9712,7 +9612,7 @@
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="20" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E430" s="35" t="n">
         <v>43910</v>
@@ -9720,7 +9620,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="5"/>
       <c r="H430" s="29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -9742,10 +9642,10 @@
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="3" t="n">
-        <v>114.110000000000014</v>
+        <v>114.109999999999999</v>
       </c>
       <c r="D432" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E432" s="35" t="n">
         <v>43912</v>
@@ -9753,7 +9653,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="5"/>
       <c r="H432" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -9768,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="G433" s="8" t="n">
-        <v>114.110000000000014</v>
+        <v>114.109999999999999</v>
       </c>
       <c r="H433" s="29"/>
     </row>
@@ -9780,7 +9680,7 @@
         <v>106.920000000000002</v>
       </c>
       <c r="D434" s="19" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E434" s="35" t="n">
         <v>43913</v>
@@ -9788,7 +9688,7 @@
       <c r="F434" s="4"/>
       <c r="G434" s="5"/>
       <c r="H434" s="29" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -9799,13 +9699,13 @@
         <v>142.710000000000008</v>
       </c>
       <c r="D435" s="19" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E435" s="35"/>
       <c r="F435" s="4"/>
       <c r="G435" s="5"/>
       <c r="H435" s="29" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -9831,7 +9731,7 @@
         <v>35.4200000000000017</v>
       </c>
       <c r="D437" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E437" s="35" t="n">
         <v>43923</v>
@@ -9839,7 +9739,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="5"/>
       <c r="H437" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -9865,7 +9765,7 @@
         <v>121.599999999999994</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E439" s="35" t="n">
         <v>43924</v>
@@ -9873,7 +9773,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="5"/>
       <c r="H439" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -9899,7 +9799,7 @@
         <v>111.670000000000002</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E441" s="35" t="n">
         <v>43935</v>
@@ -9907,7 +9807,7 @@
       <c r="F441" s="4"/>
       <c r="G441" s="5"/>
       <c r="H441" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -9933,7 +9833,7 @@
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E443" s="35" t="n">
         <v>43938</v>
@@ -9941,7 +9841,7 @@
       <c r="F443" s="4"/>
       <c r="G443" s="5"/>
       <c r="H443" s="29" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -9967,7 +9867,7 @@
         <v>47.3100000000000023</v>
       </c>
       <c r="D445" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E445" s="35" t="n">
         <v>43939</v>
@@ -9975,7 +9875,7 @@
       <c r="F445" s="4"/>
       <c r="G445" s="5"/>
       <c r="H445" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -10001,7 +9901,7 @@
         <v>65.3499999999999943</v>
       </c>
       <c r="D447" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E447" s="35" t="n">
         <v>43948</v>
@@ -10009,7 +9909,7 @@
       <c r="F447" s="4"/>
       <c r="G447" s="5"/>
       <c r="H447" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -10021,13 +9921,13 @@
         <v>44.0799999999999983</v>
       </c>
       <c r="D448" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E448" s="35"/>
       <c r="F448" s="4"/>
       <c r="G448" s="5"/>
       <c r="H448" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -10054,13 +9954,13 @@
         <v>75.6599999999999824</v>
       </c>
       <c r="D450" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E450" s="33" t="n">
         <v>43958</v>
       </c>
       <c r="H450" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="451" spans="1:1">
@@ -10076,13 +9976,13 @@
         <v>185</v>
       </c>
       <c r="D452" s="19" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E452" s="33" t="n">
         <v>43960</v>
       </c>
       <c r="H452" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="453" spans="1:1">
@@ -10098,13 +9998,13 @@
         <v>51.5399999999999991</v>
       </c>
       <c r="D454" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E454" s="33" t="n">
         <v>43964</v>
       </c>
       <c r="H454" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -10120,13 +10020,13 @@
         <v>38.490000000000002</v>
       </c>
       <c r="D456" s="19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E456" s="33" t="n">
         <v>43966</v>
       </c>
       <c r="H456" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -10137,10 +10037,10 @@
         <v>10</v>
       </c>
       <c r="D457" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H457" s="27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="458" spans="1:1">
@@ -10156,13 +10056,13 @@
         <v>12.5</v>
       </c>
       <c r="D459" s="19" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E459" s="33" t="n">
         <v>43967</v>
       </c>
       <c r="H459" s="27" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="460" spans="1:1">
@@ -10178,13 +10078,13 @@
         <v>68.519999999999996</v>
       </c>
       <c r="D461" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E461" s="33" t="n">
         <v>43971</v>
       </c>
       <c r="H461" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="462" spans="1:1">
@@ -10200,13 +10100,13 @@
         <v>117.810000000000002</v>
       </c>
       <c r="D463" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E463" s="33" t="n">
         <v>43973</v>
       </c>
       <c r="H463" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="464" spans="1:1">
@@ -10222,13 +10122,13 @@
         <v>1.25</v>
       </c>
       <c r="D465" s="19" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E465" s="33" t="n">
         <v>43979</v>
       </c>
       <c r="H465" s="27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -10239,10 +10139,10 @@
         <v>76.5100000000000051</v>
       </c>
       <c r="D466" s="19" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H466" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -10253,10 +10153,10 @@
         <v>30.3000000000000007</v>
       </c>
       <c r="D467" s="19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H467" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="468" spans="1:1">
@@ -10272,13 +10172,13 @@
         <v>55.0399999999999991</v>
       </c>
       <c r="D469" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E469" s="33" t="n">
         <v>43984</v>
       </c>
       <c r="H469" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="470" spans="1:1">
@@ -10294,13 +10194,13 @@
         <v>5</v>
       </c>
       <c r="D471" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E471" s="33" t="n">
         <v>43985</v>
       </c>
       <c r="H471" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -10311,10 +10211,10 @@
         <v>100.709999999999994</v>
       </c>
       <c r="D472" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H472" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -10325,10 +10225,10 @@
         <v>7.90000000000000036</v>
       </c>
       <c r="D473" s="19" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H473" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="474" spans="1:1">
@@ -10344,13 +10244,13 @@
         <v>90</v>
       </c>
       <c r="D475" s="19" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E475" s="33" t="n">
         <v>43986</v>
       </c>
       <c r="H475" s="27" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="476" spans="1:1">
@@ -10366,13 +10266,13 @@
         <v>360</v>
       </c>
       <c r="D477" s="19" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E477" s="33" t="n">
         <v>43987</v>
       </c>
       <c r="H477" s="27" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="478" spans="1:1">
@@ -10388,7 +10288,7 @@
         <v>83.4699999999999989</v>
       </c>
       <c r="D479" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E479" s="33" t="n">
         <v>43990</v>
@@ -10407,13 +10307,13 @@
         <v>220</v>
       </c>
       <c r="D481" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E481" s="33" t="n">
         <v>43992</v>
       </c>
       <c r="H481" s="27" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="482" spans="1:1">
@@ -10443,10 +10343,10 @@
         <v>7.59999999999999876</v>
       </c>
       <c r="D484" s="19" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H484" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -10462,7 +10362,7 @@
         <v>94.6899999999999977</v>
       </c>
       <c r="D486" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E486" s="33" t="n">
         <v>43995</v>
@@ -10481,7 +10381,7 @@
         <v>20</v>
       </c>
       <c r="D488" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E488" s="33" t="n">
         <v>43996</v>
@@ -10500,13 +10400,13 @@
         <v>33.2800000000000011</v>
       </c>
       <c r="D490" s="19" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E490" s="33" t="n">
         <v>43997</v>
       </c>
       <c r="H490" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="491" spans="1:1">
@@ -10522,13 +10422,13 @@
         <v>24.6000000000000014</v>
       </c>
       <c r="D492" s="19" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E492" s="33" t="n">
         <v>43998</v>
       </c>
       <c r="H492" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -10539,10 +10439,10 @@
         <v>41.3900000000000006</v>
       </c>
       <c r="D493" s="19" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H493" s="27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="494" spans="1:1">
@@ -10558,13 +10458,13 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D495" s="19" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E495" s="33" t="n">
         <v>43999</v>
       </c>
       <c r="H495" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="496" spans="1:1">
@@ -10580,7 +10480,7 @@
         <v>74.3599999999999994</v>
       </c>
       <c r="D497" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E497" s="33" t="n">
         <v>44000</v>
@@ -10599,13 +10499,13 @@
         <v>23.4100000000000001</v>
       </c>
       <c r="D499" s="19" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E499" s="33" t="n">
         <v>44004</v>
       </c>
       <c r="H499" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -10616,10 +10516,10 @@
         <v>10.1999999999999993</v>
       </c>
       <c r="D500" s="19" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H500" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="501" spans="1:1">
@@ -10635,7 +10535,7 @@
         <v>37.0900000000000034</v>
       </c>
       <c r="D502" s="20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E502" s="33" t="n">
         <v>44008</v>
@@ -10649,10 +10549,10 @@
         <v>95.019999999999996</v>
       </c>
       <c r="D503" s="19" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H503" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="504" spans="1:1">
@@ -10668,13 +10568,13 @@
         <v>20.7399999999999984</v>
       </c>
       <c r="D505" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E505" s="33" t="n">
         <v>44013</v>
       </c>
       <c r="H505" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="506" spans="1:1">
@@ -10690,13 +10590,13 @@
         <v>9</v>
       </c>
       <c r="D507" s="19" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E507" s="33" t="n">
         <v>44015</v>
       </c>
       <c r="H507" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="508" spans="1:1">
@@ -10712,13 +10612,13 @@
         <v>7.88999999999999879</v>
       </c>
       <c r="D509" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E509" s="33" t="n">
         <v>44016</v>
       </c>
       <c r="H509" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10729,7 +10629,7 @@
         <v>49.7800000000000011</v>
       </c>
       <c r="D510" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="511" spans="1:1">
@@ -10745,13 +10645,13 @@
         <v>42.5200000000000031</v>
       </c>
       <c r="D512" s="19" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E512" s="33" t="n">
         <v>44019</v>
       </c>
       <c r="H512" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -10762,10 +10662,10 @@
         <v>49.0300000000000011</v>
       </c>
       <c r="D513" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H513" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="514" spans="1:1">
@@ -10781,13 +10681,13 @@
         <v>23.2100000000000009</v>
       </c>
       <c r="D515" s="19" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E515" s="33" t="n">
         <v>44020</v>
       </c>
       <c r="H515" s="27" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -10798,10 +10698,10 @@
         <v>67.0300000000000011</v>
       </c>
       <c r="D516" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H516" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -10812,10 +10712,10 @@
         <v>110</v>
       </c>
       <c r="D517" s="19" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H517" s="27" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="518" spans="1:1">
@@ -10831,7 +10731,7 @@
         <v>1120</v>
       </c>
       <c r="D519" s="19" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E519" s="33" t="n">
         <v>44022</v>
@@ -10845,10 +10745,10 @@
         <v>24.8000000000000007</v>
       </c>
       <c r="D520" s="19" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H520" s="27" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -10859,10 +10759,10 @@
         <v>48.6899999999999977</v>
       </c>
       <c r="D521" s="19" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H521" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -10873,10 +10773,10 @@
         <v>8.40000000000000036</v>
       </c>
       <c r="D522" s="19" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H522" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -10887,10 +10787,10 @@
         <v>40.2299999999999969</v>
       </c>
       <c r="D523" s="19" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H523" s="27" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="524" spans="1:1">
@@ -10906,13 +10806,13 @@
         <v>14.1199999999999992</v>
       </c>
       <c r="D525" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E525" s="33" t="n">
         <v>44026</v>
       </c>
       <c r="H525" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="526" spans="1:1">
@@ -10928,13 +10828,13 @@
         <v>28.3599999999999994</v>
       </c>
       <c r="D527" s="19" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E527" s="33" t="n">
         <v>44027</v>
       </c>
       <c r="H527" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="528" spans="1:1">
@@ -10950,13 +10850,13 @@
         <v>43.6700000000000017</v>
       </c>
       <c r="D529" s="19" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E529" s="33" t="n">
         <v>44028</v>
       </c>
       <c r="H529" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -10967,10 +10867,10 @@
         <v>48.8500000000000014</v>
       </c>
       <c r="D530" s="19" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H530" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -10981,10 +10881,10 @@
         <v>37.75</v>
       </c>
       <c r="D531" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H531" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -11000,13 +10900,13 @@
         <v>28.7300000000000004</v>
       </c>
       <c r="D533" s="19" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E533" s="33" t="n">
         <v>44031</v>
       </c>
       <c r="H533" s="27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -11017,10 +10917,10 @@
         <v>34.4799999999999969</v>
       </c>
       <c r="D534" s="19" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H534" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -11031,10 +10931,10 @@
         <v>17.25</v>
       </c>
       <c r="D535" s="19" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H535" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="536" spans="1:1">
@@ -11050,13 +10950,13 @@
         <v>270.399999999999977</v>
       </c>
       <c r="D537" s="19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E537" s="33" t="n">
         <v>44032</v>
       </c>
       <c r="H537" s="27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -11067,7 +10967,7 @@
         <v>44.6499999999999986</v>
       </c>
       <c r="D538" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -11078,10 +10978,10 @@
         <v>11</v>
       </c>
       <c r="D539" s="19" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H539" s="27" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="540" spans="1:1">
@@ -11097,13 +10997,13 @@
         <v>56.4200000000000017</v>
       </c>
       <c r="D541" s="19" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E541" s="33" t="n">
         <v>44033</v>
       </c>
       <c r="H541" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -11114,7 +11014,7 @@
         <v>20.5399999999999991</v>
       </c>
       <c r="D542" s="19" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="543" spans="1:1">
@@ -11130,13 +11030,13 @@
         <v>33.7000000000000028</v>
       </c>
       <c r="D544" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E544" s="33" t="n">
         <v>44034</v>
       </c>
       <c r="H544" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="545" spans="1:1">
@@ -11152,7 +11052,7 @@
         <v>30.3599999999999994</v>
       </c>
       <c r="D546" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E546" s="33" t="n">
         <v>44036</v>
@@ -11171,13 +11071,13 @@
         <v>6.83999999999999986</v>
       </c>
       <c r="D548" s="19" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E548" s="33" t="n">
         <v>44037</v>
       </c>
       <c r="H548" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -11193,13 +11093,13 @@
         <v>1560</v>
       </c>
       <c r="D550" s="19" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E550" s="33" t="n">
         <v>44040</v>
       </c>
       <c r="H550" s="27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="551" spans="1:1">
@@ -11215,13 +11115,13 @@
         <v>19.0500000000000007</v>
       </c>
       <c r="D552" s="19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E552" s="33" t="n">
         <v>44041</v>
       </c>
       <c r="H552" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -11232,10 +11132,10 @@
         <v>17.7699999999999996</v>
       </c>
       <c r="D553" s="19" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H553" s="27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -11246,10 +11146,10 @@
         <v>26.6900000000000013</v>
       </c>
       <c r="D554" s="19" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H554" s="27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -11260,10 +11160,10 @@
         <v>18</v>
       </c>
       <c r="D555" s="19" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H555" s="27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -11274,10 +11174,10 @@
         <v>38.25</v>
       </c>
       <c r="D556" s="19" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H556" s="27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="557" spans="1:11">
@@ -11288,13 +11188,13 @@
         <v>1575</v>
       </c>
       <c r="D557" s="19" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H557" s="27" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K557" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="558" spans="1:1">
@@ -11310,13 +11210,13 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D559" s="19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E559" s="33" t="n">
         <v>44042</v>
       </c>
       <c r="H559" s="27" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -11327,10 +11227,10 @@
         <v>92.019999999999996</v>
       </c>
       <c r="D560" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H560" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -11341,10 +11241,10 @@
         <v>100</v>
       </c>
       <c r="D561" s="19" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H561" s="27" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="562" spans="1:1">
@@ -11357,10 +11257,10 @@
         <v>562</v>
       </c>
       <c r="C563" s="31" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D563" s="32" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E563" s="39" t="n">
         <v>44046</v>
@@ -11368,7 +11268,7 @@
       <c r="F563" s="32"/>
       <c r="G563" s="32"/>
       <c r="H563" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -11376,16 +11276,16 @@
         <v>563</v>
       </c>
       <c r="C564" s="31" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D564" s="32" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E564" s="38"/>
       <c r="F564" s="32"/>
       <c r="G564" s="32"/>
       <c r="H564" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -11396,7 +11296,7 @@
         <v>10</v>
       </c>
       <c r="D565" s="32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E565" s="38"/>
       <c r="F565" s="32"/>
@@ -11422,7 +11322,7 @@
         <v>10</v>
       </c>
       <c r="D567" s="32" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E567" s="37" t="n">
         <v>44050</v>
@@ -11430,7 +11330,7 @@
       <c r="F567" s="32"/>
       <c r="G567" s="32"/>
       <c r="H567" s="32" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -11449,10 +11349,10 @@
         <v>568</v>
       </c>
       <c r="C569" s="31" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D569" s="32" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E569" s="37" t="n">
         <v>44051</v>
@@ -11460,7 +11360,7 @@
       <c r="F569" s="32"/>
       <c r="G569" s="32"/>
       <c r="H569" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -11482,7 +11382,7 @@
         <v>300</v>
       </c>
       <c r="D571" s="32" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E571" s="37" t="n">
         <v>44052</v>
@@ -11490,7 +11390,7 @@
       <c r="F571" s="32"/>
       <c r="G571" s="32"/>
       <c r="H571" s="32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -11505,16 +11405,16 @@
         <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D573" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E573" s="33" t="n">
         <v>44054</v>
       </c>
       <c r="H573" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -11529,16 +11429,16 @@
         <v>574</v>
       </c>
       <c r="C575" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D575" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E575" s="33" t="n">
         <v>44057</v>
       </c>
       <c r="H575" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -11553,16 +11453,16 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D577" s="19" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E577" s="33" t="n">
         <v>44059</v>
       </c>
       <c r="H577" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -11570,13 +11470,13 @@
         <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D578" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H578" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="579" spans="1:1">
@@ -11592,13 +11492,13 @@
         <v>85</v>
       </c>
       <c r="D580" s="19" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E580" s="33" t="n">
         <v>44061</v>
       </c>
       <c r="H580" s="27" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -11614,10 +11514,10 @@
         <v>581</v>
       </c>
       <c r="C582" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D582" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E582" s="40" t="n">
         <v>44063</v>
@@ -11628,10 +11528,10 @@
         <v>582</v>
       </c>
       <c r="C583" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D583" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E583"/>
     </row>
@@ -11640,10 +11540,10 @@
         <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D584" s="19" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E584" s="33" t="n">
         <v>44065</v>
@@ -11664,10 +11564,10 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D587" s="19" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E587" s="33" t="n">
         <v>44068</v>
@@ -11681,7 +11581,7 @@
         <v>7</v>
       </c>
       <c r="D588" s="19" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -11689,10 +11589,10 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D589" s="19" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E589" s="33" t="n">
         <v>44069</v>
@@ -11877,7 +11777,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614121623" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614162842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11886,14 +11786,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121623" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614162842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11915,7 +11815,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614121623" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614162842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11924,14 +11824,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121623" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614162842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11953,7 +11853,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614121623" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614162842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11962,14 +11862,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614121623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614121623" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614162842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/documentation/example_expenses_en.xlsx
+++ b/app/documentation/example_expenses_en.xlsx
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614162842" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614162842" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614162842" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614162842"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614028498" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614028498" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614028498" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614028498"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="410">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,45 @@
     <t>Trip</t>
   </si>
   <si>
+    <t>Campus Laval  : 1er loyer du CAMPUS LAVAL</t>
+  </si>
+  <si>
+    <t>housing:rent</t>
+  </si>
+  <si>
+    <t>Avion : billet France -&gt; Québec</t>
+  </si>
+  <si>
+    <t>transport:plane</t>
+  </si>
+  <si>
+    <t>Equipement fnac, oreiller</t>
+  </si>
+  <si>
+    <t>equipement:other</t>
+  </si>
+  <si>
+    <t>Pharmacie crème visage + dermatologue</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>Mcdo</t>
+  </si>
+  <si>
+    <t>alimentary</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>Franprix</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
     <t>transport bus arrivée</t>
   </si>
   <si>
@@ -78,18 +117,12 @@
     <t>bonbon reese (test carte bleue)</t>
   </si>
   <si>
-    <t>alimentary</t>
-  </si>
-  <si>
     <t>adaptateur</t>
   </si>
   <si>
     <t>equipement</t>
   </si>
   <si>
-    <t>Mcdo</t>
-  </si>
-  <si>
     <t>Thé gingembre 1 boite</t>
   </si>
   <si>
@@ -99,15 +132,9 @@
     <t>Walmart : brosse à dents, crocks, rasoirs</t>
   </si>
   <si>
-    <t>equipement:other</t>
-  </si>
-  <si>
     <t>shampoing Ives Rocher</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>Walmart : tasse, bol, bouilloire, boule à thé, manger</t>
   </si>
   <si>
@@ -336,9 +363,6 @@
     <t>Campus Laval : Payement des loyers de oct., nov. et déc.</t>
   </si>
   <si>
-    <t>housing:rent</t>
-  </si>
-  <si>
     <t>Amazon : jeu d'échec</t>
   </si>
   <si>
@@ -511,9 +535,6 @@
   </si>
   <si>
     <t>Remboursement Aymeric Cuba vol + hotel inclus; cuba.19.10</t>
-  </si>
-  <si>
-    <t>transport:plane</t>
   </si>
   <si>
     <t>CUBA.19.10</t>
@@ -1264,7 +1285,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614028498" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1279,7 +1300,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614028498" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1295,7 +1316,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614028498" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1310,7 +1331,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614162842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614028498" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1382,7 +1403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842"/>
+          <pm:border xmlns:pm="smNativeData" id="1614028498"/>
         </ext>
       </extLst>
     </border>
@@ -1401,7 +1422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1422,7 +1443,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1444,7 +1465,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1465,7 +1486,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1486,7 +1507,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1507,7 +1528,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1529,7 +1550,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1551,7 +1572,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1574,7 +1595,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1596,7 +1617,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1619,7 +1640,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1641,7 +1662,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1663,7 +1684,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614162842">
+          <pm:border xmlns:pm="smNativeData" id="1614028498">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1755,10 +1776,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614162842" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614028498" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614162842" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614028498" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -2024,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N624"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K9"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
@@ -2086,28 +2107,56 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="12" t="n">
+        <v>246.550000000000011</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="35" t="n">
+        <v>43678</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
+      <c r="H2" s="27" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="n">
+        <v>545.230000000000018</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="35"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
+      <c r="H3" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="35" t="n">
+        <v>43681</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
+      <c r="H4" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
     </row>
@@ -2115,10 +2164,21 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="13">
+        <f>75+60</f>
+        <v>135</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="35" t="n">
+        <v>43683</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
+      <c r="H5" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
@@ -2126,10 +2186,20 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35" t="n">
+        <v>43687</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
+      <c r="H6" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
@@ -2137,31 +2207,61 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="35"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
+      <c r="H7" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="35" t="n">
+        <v>43692</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
+      <c r="H8" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="35" t="n">
+        <v>43694</v>
+      </c>
+      <c r="F9" s="16">
+        <f>SUM(B2:B9)</f>
+        <v>1062.77999999999997</v>
+      </c>
       <c r="G9" s="8"/>
+      <c r="H9" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="n">
@@ -2172,7 +2272,7 @@
         <v>6.5</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E10" s="35" t="n">
         <v>43699</v>
@@ -2180,7 +2280,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2192,13 +2292,13 @@
         <v>117.5</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="27" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2207,16 +2307,16 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2228,13 +2328,13 @@
         <v>6.61000000000000032</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2255,7 +2355,7 @@
         <v>150.949999999999989</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <f>C14+C76+C109</f>
@@ -2271,7 +2371,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E15" s="35" t="n">
         <v>43700</v>
@@ -2279,7 +2379,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2291,13 +2391,13 @@
         <v>183.789999999999992</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2309,13 +2409,13 @@
         <v>102.590000000000003</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2327,13 +2427,13 @@
         <v>17.1900000000000013</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2345,13 +2445,13 @@
         <v>39.3599999999999994</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2363,13 +2463,13 @@
         <v>68.9599999999999937</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2381,13 +2481,13 @@
         <v>8.75</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2399,13 +2499,13 @@
         <v>6.71999999999999975</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2417,13 +2517,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2435,7 +2535,7 @@
         <v>8.25</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="10"/>
@@ -2444,7 +2544,7 @@
         <v>476.610000000000014</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2456,7 +2556,7 @@
         <v>20.6600000000000001</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E25" s="35" t="n">
         <v>43701</v>
@@ -2464,7 +2564,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2476,13 +2576,13 @@
         <v>30.1700000000000017</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2494,13 +2594,13 @@
         <v>18.370000000000001</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2512,13 +2612,13 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2530,13 +2630,13 @@
         <v>11.0999999999999996</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2548,13 +2648,13 @@
         <v>60.2199999999999989</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2566,7 +2666,7 @@
         <v>8.25</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="10"/>
@@ -2575,7 +2675,7 @@
         <v>154.969999999999999</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2587,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E32" s="35" t="n">
         <v>43702</v>
@@ -2595,7 +2695,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2607,7 +2707,7 @@
         <v>49.1799999999999997</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="10"/>
@@ -2616,7 +2716,7 @@
         <v>69.1800000000000068</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2628,7 +2728,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E34" s="35" t="n">
         <v>43703</v>
@@ -2636,7 +2736,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
       <c r="H34" s="27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2648,13 +2748,13 @@
         <v>14.25</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2666,13 +2766,13 @@
         <v>22.4200000000000017</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2684,13 +2784,13 @@
         <v>10.5800000000000001</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2702,7 +2802,7 @@
         <v>197.740000000000009</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="10"/>
@@ -2711,7 +2811,7 @@
         <v>251.189999999999998</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J38" t="n">
         <v>50</v>
@@ -2726,7 +2826,7 @@
         <v>25.25</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E39" s="35" t="n">
         <v>43704</v>
@@ -2734,7 +2834,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J39" t="n">
         <v>25.25</v>
@@ -2749,13 +2849,13 @@
         <v>6.33000000000000007</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
       <c r="H40" s="27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2767,13 +2867,13 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2785,7 +2885,7 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="10"/>
@@ -2794,7 +2894,7 @@
         <v>83.7600000000000051</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J42" t="n">
         <v>24</v>
@@ -2809,7 +2909,7 @@
         <v>47.5300000000000011</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E43" s="35" t="n">
         <v>43705</v>
@@ -2817,7 +2917,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J43" t="n">
         <v>20</v>
@@ -2832,13 +2932,13 @@
         <v>357.860000000000014</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
       <c r="H44" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J44" t="n">
         <v>250</v>
@@ -2853,13 +2953,13 @@
         <v>41.8100000000000023</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2871,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="10"/>
@@ -2880,7 +2980,7 @@
         <v>457.199999999999989</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2892,7 +2992,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E47" s="35" t="n">
         <v>43706</v>
@@ -2900,7 +3000,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="5"/>
       <c r="H47" s="27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2912,7 +3012,7 @@
         <v>18.2399999999999984</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E48" s="35"/>
       <c r="F48" s="4"/>
@@ -2927,7 +3027,7 @@
         <v>16.1999999999999993</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="4"/>
@@ -2942,7 +3042,7 @@
         <v>3.43999999999999995</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="4"/>
@@ -2957,7 +3057,7 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E51" s="35"/>
       <c r="F51" s="4"/>
@@ -2972,7 +3072,7 @@
         <v>51.4399999999999977</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="4"/>
@@ -2990,7 +3090,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="10"/>
@@ -3008,7 +3108,7 @@
         <v>11.0500000000000007</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E54" s="35" t="n">
         <v>43707</v>
@@ -3025,7 +3125,7 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E55" s="35"/>
       <c r="F55" s="4"/>
@@ -3040,7 +3140,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E56" s="35"/>
       <c r="F56" s="4"/>
@@ -3055,7 +3155,7 @@
         <v>14.8300000000000001</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E57" s="35"/>
       <c r="F57" s="10"/>
@@ -3073,7 +3173,7 @@
         <v>42.1099999999999994</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E58" s="35" t="n">
         <v>43708</v>
@@ -3090,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E59" s="35"/>
       <c r="F59" s="11"/>
@@ -3126,7 +3226,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E61" s="35" t="n">
         <v>43711</v>
@@ -3134,7 +3234,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="5"/>
       <c r="H61" s="27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3146,13 +3246,13 @@
         <v>57.5700000000000003</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="4"/>
       <c r="G62" s="5"/>
       <c r="H62" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3178,7 +3278,7 @@
         <v>59.8999999999999986</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E64" s="35" t="n">
         <v>43713</v>
@@ -3186,7 +3286,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="5"/>
       <c r="H64" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3212,7 +3312,7 @@
         <v>147.060000000000002</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E66" s="35" t="n">
         <v>43714</v>
@@ -3220,7 +3320,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="7"/>
       <c r="H66" s="27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J66" t="n">
         <v>50</v>
@@ -3235,13 +3335,13 @@
         <v>10.4499999999999993</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E67" s="35"/>
       <c r="F67" s="4"/>
       <c r="G67" s="5"/>
       <c r="H67" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3253,13 +3353,13 @@
         <v>10.0099999999999998</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="4"/>
       <c r="G68" s="5"/>
       <c r="H68" s="27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3271,7 +3371,7 @@
         <v>168</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E69" s="35"/>
       <c r="F69" s="4"/>
@@ -3300,7 +3400,7 @@
         <v>20.4699999999999989</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E71" s="35" t="n">
         <v>43715</v>
@@ -3308,7 +3408,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="5"/>
       <c r="H71" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3334,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E73" s="35" t="n">
         <v>43716</v>
@@ -3342,7 +3442,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="5"/>
       <c r="H73" s="27" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3354,13 +3454,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E74" s="35"/>
       <c r="F74" s="4"/>
       <c r="G74" s="5"/>
       <c r="H74" s="27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3397,7 +3497,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="5"/>
       <c r="H76" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3422,13 +3522,13 @@
         <v>9.25</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E78" s="35"/>
       <c r="F78" s="4"/>
       <c r="G78" s="5"/>
       <c r="H78" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3454,7 +3554,7 @@
         <v>55.8999999999999986</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E80" s="35" t="n">
         <v>43719</v>
@@ -3471,7 +3571,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E81" s="35"/>
       <c r="F81" s="4"/>
@@ -3486,7 +3586,7 @@
         <v>16.5</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E82" s="35"/>
       <c r="F82" s="4"/>
@@ -3501,7 +3601,7 @@
         <v>60</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E83" s="35"/>
       <c r="F83" s="4"/>
@@ -3530,7 +3630,7 @@
         <v>60.8299999999999983</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E85" s="35" t="n">
         <v>43720</v>
@@ -3561,7 +3661,7 @@
         <v>31.0399999999999991</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E87" s="35" t="n">
         <v>43721</v>
@@ -3569,7 +3669,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="5"/>
       <c r="H87" s="27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J87" t="n">
         <v>20</v>
@@ -3584,13 +3684,13 @@
         <v>60.3400000000000034</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E88" s="35"/>
       <c r="F88" s="4"/>
       <c r="G88" s="5"/>
       <c r="H88" s="27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J88" t="n">
         <v>10</v>
@@ -3605,13 +3705,13 @@
         <v>26.4200000000000017</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E89" s="35"/>
       <c r="F89" s="4"/>
       <c r="G89" s="5"/>
       <c r="H89" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3623,13 +3723,13 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E90" s="35"/>
       <c r="F90" s="4"/>
       <c r="G90" s="5"/>
       <c r="H90" s="27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J90" t="n">
         <v>10</v>
@@ -3644,13 +3744,13 @@
         <v>42.9699999999999989</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E91" s="35"/>
       <c r="F91" s="4"/>
       <c r="G91" s="5"/>
       <c r="H91" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3662,13 +3762,13 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E92" s="35"/>
       <c r="F92" s="4"/>
       <c r="G92" s="5"/>
       <c r="H92" s="27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3677,16 +3777,16 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" t="n">
-        <v>13.9199999999999999</v>
+        <v>13.9200000000000017</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E93" s="35"/>
       <c r="F93" s="4"/>
       <c r="G93" s="5"/>
       <c r="H93" s="27" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3712,7 +3812,7 @@
         <v>26</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E95" s="35" t="n">
         <v>43723</v>
@@ -3720,7 +3820,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="5"/>
       <c r="H95" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3732,13 +3832,13 @@
         <v>23</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E96" s="35"/>
       <c r="F96" s="4"/>
       <c r="G96" s="5"/>
       <c r="H96" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3764,7 +3864,7 @@
         <v>1080</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E98" s="35" t="n">
         <v>43725</v>
@@ -3772,7 +3872,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="5"/>
       <c r="H98" s="27" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3784,13 +3884,13 @@
         <v>32</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E99" s="35"/>
       <c r="F99" s="4"/>
       <c r="G99" s="5"/>
       <c r="H99" s="27" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3816,7 +3916,7 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E101" s="35" t="n">
         <v>43726</v>
@@ -3824,7 +3924,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="5"/>
       <c r="H101" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3850,7 +3950,7 @@
         <v>24.7399999999999984</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E103" s="35" t="n">
         <v>43727</v>
@@ -3858,7 +3958,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="5"/>
       <c r="H103" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3887,7 +3987,7 @@
         <v>35.25</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E105" s="35" t="n">
         <v>43728</v>
@@ -3895,7 +3995,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="5"/>
       <c r="H105" s="27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3907,13 +4007,13 @@
         <v>5.58999999999999986</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E106" s="35"/>
       <c r="F106" s="4"/>
       <c r="G106" s="5"/>
       <c r="H106" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3925,13 +4025,13 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E107" s="35"/>
       <c r="F107" s="4"/>
       <c r="G107" s="5"/>
       <c r="H107" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3943,13 +4043,13 @@
         <v>13.8000000000000007</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E108" s="35"/>
       <c r="F108" s="4"/>
       <c r="G108" s="5"/>
       <c r="H108" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3961,13 +4061,13 @@
         <v>25</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E109" s="35"/>
       <c r="F109" s="4"/>
       <c r="G109" s="5"/>
       <c r="H109" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3993,7 +4093,7 @@
         <v>6.90000000000000036</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E111" s="35" t="n">
         <v>43729</v>
@@ -4001,7 +4101,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="5"/>
       <c r="H111" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4013,13 +4113,13 @@
         <v>12.1500000000000004</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="4"/>
       <c r="G112" s="5"/>
       <c r="H112" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4042,10 +4142,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E114" s="35" t="n">
         <v>43731</v>
@@ -4053,7 +4153,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="5"/>
       <c r="H114" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4065,13 +4165,13 @@
         <v>28.629999999999999</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E115" s="35"/>
       <c r="F115" s="4"/>
       <c r="G115" s="5"/>
       <c r="H115" s="27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4083,13 +4183,13 @@
         <v>28.7399999999999984</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E116" s="35"/>
       <c r="F116" s="4"/>
       <c r="G116" s="5"/>
       <c r="H116" s="27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4101,13 +4201,13 @@
         <v>59.7100000000000009</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E117" s="35"/>
       <c r="F117" s="4"/>
       <c r="G117" s="5"/>
       <c r="H117" s="27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="J117" t="n">
         <v>20</v>
@@ -4122,13 +4222,13 @@
         <v>27.879999999999999</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E118" s="35"/>
       <c r="F118" s="4"/>
       <c r="G118" s="5"/>
       <c r="H118" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4151,7 +4251,7 @@
         <v>600</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E120" s="35" t="n">
         <v>43733</v>
@@ -4159,7 +4259,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="5"/>
       <c r="H120" s="27" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4170,13 +4270,13 @@
         <v>91</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E121" s="35"/>
       <c r="F121" s="4"/>
       <c r="G121" s="5"/>
       <c r="H121" s="27" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4187,13 +4287,13 @@
         <v>-600</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E122" s="35"/>
       <c r="F122" s="4"/>
       <c r="G122" s="5"/>
       <c r="H122" s="27" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4204,11 +4304,11 @@
         <v>-91</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E123" s="35"/>
       <c r="H123" s="27" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4234,7 +4334,7 @@
         <v>35.0200000000000031</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E125" s="35" t="n">
         <v>43734</v>
@@ -4242,7 +4342,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="5"/>
       <c r="H125" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4254,13 +4354,13 @@
         <v>12.9499999999999993</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E126" s="35"/>
       <c r="F126" s="4"/>
       <c r="G126" s="5"/>
       <c r="H126" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4272,13 +4372,13 @@
         <v>23.6799999999999997</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E127" s="35"/>
       <c r="F127" s="4"/>
       <c r="G127" s="5"/>
       <c r="H127" s="27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4290,13 +4390,13 @@
         <v>3.04000000000000004</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E128" s="35"/>
       <c r="F128" s="4"/>
       <c r="G128" s="18"/>
       <c r="H128" s="27" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4308,13 +4408,13 @@
         <v>70.0900000000000034</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E129" s="35"/>
       <c r="F129" s="4"/>
       <c r="G129" s="5"/>
       <c r="H129" s="27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J129" t="n">
         <v>10</v>
@@ -4343,7 +4443,7 @@
         <v>20</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E131" s="35" t="n">
         <v>43735</v>
@@ -4351,7 +4451,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="5"/>
       <c r="H131" s="27" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="J131" t="n">
         <v>21</v>
@@ -4379,7 +4479,7 @@
         <v>13.4700000000000006</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E133" s="35" t="n">
         <v>43737</v>
@@ -4387,7 +4487,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="5"/>
       <c r="H133" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4413,7 +4513,7 @@
         <v>41.3599999999999994</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E135" s="35" t="n">
         <v>43738</v>
@@ -4421,7 +4521,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="5"/>
       <c r="H135" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J135" t="n">
         <v>10</v>
@@ -4436,16 +4536,16 @@
         <v>14</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E136" s="35"/>
       <c r="F136" s="4"/>
       <c r="G136" s="5"/>
       <c r="H136" s="27" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L136" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4482,7 +4582,7 @@
         <v>6.38999999999999968</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E139" s="35" t="n">
         <v>43741</v>
@@ -4490,7 +4590,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="5"/>
       <c r="H139" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4502,13 +4602,13 @@
         <v>160.689999999999998</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E140" s="35"/>
       <c r="F140" s="4"/>
       <c r="G140" s="5"/>
       <c r="H140" s="27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J140" t="n">
         <v>100</v>
@@ -4537,7 +4637,7 @@
         <v>53.240000000000002</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E142" s="35" t="n">
         <v>43742</v>
@@ -4545,7 +4645,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="5"/>
       <c r="H142" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4557,13 +4657,13 @@
         <v>9</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E143" s="35"/>
       <c r="F143" s="4"/>
       <c r="G143" s="5"/>
       <c r="H143" s="27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4589,7 +4689,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E145" s="35" t="n">
         <v>43743</v>
@@ -4597,7 +4697,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="5"/>
       <c r="H145" s="27" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4609,13 +4709,13 @@
         <v>42.2100000000000009</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E146" s="35"/>
       <c r="F146" s="4"/>
       <c r="G146" s="5"/>
       <c r="H146" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4641,7 +4741,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E148" s="35" t="n">
         <v>43747</v>
@@ -4649,7 +4749,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="5"/>
       <c r="H148" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J148" t="n">
         <v>25</v>
@@ -4678,7 +4778,7 @@
         <v>22</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E150" s="35" t="n">
         <v>43748</v>
@@ -4686,7 +4786,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="5"/>
       <c r="H150" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -4697,16 +4797,16 @@
         <v>222.300000000000011</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E151" s="35"/>
       <c r="F151" s="4"/>
       <c r="G151" s="5"/>
       <c r="H151" s="27" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L151" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -4717,16 +4817,16 @@
         <v>189.360000000000014</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E152" s="35"/>
       <c r="F152" s="4"/>
       <c r="G152" s="5"/>
       <c r="H152" s="27" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L152" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4737,13 +4837,13 @@
         <v>4.71999999999999975</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E153" s="35"/>
       <c r="F153" s="4"/>
       <c r="G153" s="5"/>
       <c r="H153" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4770,7 +4870,7 @@
         <v>57.4799999999999969</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E155" s="35" t="n">
         <v>43749</v>
@@ -4778,7 +4878,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="5"/>
       <c r="H155" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J155" t="n">
         <v>30</v>
@@ -4793,13 +4893,13 @@
         <v>40.3100000000000023</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E156" s="35"/>
       <c r="F156" s="4"/>
       <c r="G156" s="5"/>
       <c r="H156" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4816,7 +4916,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="5"/>
       <c r="H157" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4827,13 +4927,13 @@
         <v>7.11000000000000032</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E158" s="35"/>
       <c r="F158" s="4"/>
       <c r="G158" s="5"/>
       <c r="H158" s="27" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4862,7 +4962,7 @@
         <v>14</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E160" s="35" t="n">
         <v>43750</v>
@@ -4870,7 +4970,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="5"/>
       <c r="H160" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4896,7 +4996,7 @@
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="20" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E162" s="35" t="n">
         <v>43751</v>
@@ -4904,7 +5004,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="5"/>
       <c r="H162" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I162" t="n">
         <v>30</v>
@@ -4933,7 +5033,7 @@
         <v>29.9899999999999984</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E164" s="35" t="n">
         <v>43752</v>
@@ -4941,7 +5041,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="5"/>
       <c r="H164" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -4952,19 +5052,19 @@
         <v>530.75</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E165" s="35"/>
       <c r="F165" s="4"/>
       <c r="G165" s="5"/>
       <c r="H165" s="27" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I165" t="n">
         <v>100</v>
       </c>
       <c r="L165" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4991,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E167" s="35" t="n">
         <v>43754</v>
@@ -4999,7 +5099,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="5"/>
       <c r="H167" s="27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5011,13 +5111,13 @@
         <v>20</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E168" s="35"/>
       <c r="F168" s="4"/>
       <c r="G168" s="5"/>
       <c r="H168" s="27" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J168" t="n">
         <v>20</v>
@@ -5044,7 +5144,7 @@
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="20" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E170" s="35" t="n">
         <v>43756</v>
@@ -5052,13 +5152,13 @@
       <c r="F170" s="4"/>
       <c r="G170" s="5"/>
       <c r="H170" s="27" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I170" t="n">
         <v>21.1900000000000013</v>
       </c>
       <c r="L170" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -5069,16 +5169,16 @@
         <v>11.1600000000000001</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E171" s="35"/>
       <c r="F171" s="4"/>
       <c r="G171" s="5"/>
       <c r="H171" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L171" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -5089,16 +5189,16 @@
         <v>9.25999999999999979</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E172" s="35"/>
       <c r="F172" s="4"/>
       <c r="G172" s="5"/>
       <c r="H172" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L172" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -5109,16 +5209,16 @@
         <v>5.41999999999999993</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E173" s="35"/>
       <c r="F173" s="4"/>
       <c r="G173" s="5"/>
       <c r="H173" s="27" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L173" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5143,7 +5243,7 @@
         <v>38.2000000000000028</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E175" s="35" t="n">
         <v>43757</v>
@@ -5151,10 +5251,10 @@
       <c r="F175" s="4"/>
       <c r="G175" s="5"/>
       <c r="H175" s="27" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L175" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -5165,19 +5265,19 @@
         <v>67.5400000000000063</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E176" s="35"/>
       <c r="F176" s="4"/>
       <c r="G176" s="5"/>
       <c r="H176" s="27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I176" t="n">
         <v>67.5400000000000063</v>
       </c>
       <c r="L176" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -5188,16 +5288,16 @@
         <v>9.48000000000000043</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E177" s="35"/>
       <c r="F177" s="4"/>
       <c r="G177" s="5"/>
       <c r="H177" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L177" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -5208,16 +5308,16 @@
         <v>5.40000000000000036</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E178" s="35"/>
       <c r="F178" s="4"/>
       <c r="G178" s="5"/>
       <c r="H178" s="27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L178" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -5228,19 +5328,19 @@
         <v>18.25</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E179" s="35"/>
       <c r="F179" s="4"/>
       <c r="G179" s="5"/>
       <c r="H179" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I179" t="n">
         <v>18.25</v>
       </c>
       <c r="L179" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5266,7 +5366,7 @@
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E181" s="35" t="n">
         <v>43758</v>
@@ -5274,10 +5374,10 @@
       <c r="F181" s="4"/>
       <c r="G181" s="5"/>
       <c r="H181" s="27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L181" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -5288,19 +5388,19 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E182" s="35"/>
       <c r="F182" s="4"/>
       <c r="G182" s="5"/>
       <c r="H182" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I182" t="n">
         <v>11.5399999999999991</v>
       </c>
       <c r="L182" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -5311,19 +5411,19 @@
         <v>12.8000000000000007</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E183" s="35"/>
       <c r="F183" s="4"/>
       <c r="G183" s="5"/>
       <c r="H183" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I183" t="n">
         <v>12.8000000000000007</v>
       </c>
       <c r="L183" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5349,7 +5449,7 @@
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E185" s="35" t="n">
         <v>43759</v>
@@ -5357,13 +5457,13 @@
       <c r="F185" s="4"/>
       <c r="G185" s="5"/>
       <c r="H185" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I185" t="n">
         <v>16.6999999999999993</v>
       </c>
       <c r="L185" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -5374,16 +5474,16 @@
         <v>15</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E186" s="35"/>
       <c r="F186" s="4"/>
       <c r="G186" s="5"/>
       <c r="H186" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L186" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5418,10 +5518,10 @@
         <v>43.4399999999999977</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H189" s="27" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J189" t="n">
         <v>43.4399999999999977</v>
@@ -5444,13 +5544,13 @@
         <v>27.5100000000000016</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E191" s="33" t="n">
         <v>43761</v>
       </c>
       <c r="H191" s="27" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="J191" t="n">
         <v>27.5100000000000016</v>
@@ -5465,10 +5565,10 @@
         <v>43.5200000000000031</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H192" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5488,13 +5588,13 @@
         <v>4.79999999999999982</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E194" s="33" t="n">
         <v>43763</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -5506,10 +5606,10 @@
         <v>48.2700000000000031</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J195" t="n">
         <v>48.2700000000000031</v>
@@ -5536,13 +5636,13 @@
         <v>8.67999999999999794</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E198" s="33" t="n">
         <v>43765</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -5558,16 +5658,16 @@
         <v>22</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E200" s="33" t="n">
         <v>43766</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L200" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:1">
@@ -5602,16 +5702,16 @@
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E205" s="33" t="n">
         <v>43768</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L205" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5631,16 +5731,16 @@
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="20" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E207" s="33" t="n">
         <v>43769</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L207" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5660,16 +5760,16 @@
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="20" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E209" s="33" t="n">
         <v>43770</v>
       </c>
       <c r="H209" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="L209" t="s">
         <v>170</v>
-      </c>
-      <c r="L209" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5693,19 +5793,19 @@
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="20" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E211" s="33" t="n">
         <v>43773</v>
       </c>
       <c r="H211" s="27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I211" t="n">
         <v>21.2199999999999989</v>
       </c>
       <c r="L211" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5730,7 +5830,7 @@
         <v>30.2300000000000004</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E213" s="35" t="n">
         <v>43774</v>
@@ -5738,7 +5838,7 @@
       <c r="F213" s="4"/>
       <c r="G213" s="5"/>
       <c r="H213" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5749,13 +5849,13 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E214" s="35"/>
       <c r="F214" s="4"/>
       <c r="G214" s="5"/>
       <c r="H214" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5781,7 +5881,7 @@
         <v>126.400000000000006</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E216" s="35" t="n">
         <v>43775</v>
@@ -5789,7 +5889,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="5"/>
       <c r="H216" s="27" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J216" t="n">
         <v>30</v>
@@ -5804,13 +5904,13 @@
         <v>13.2699999999999996</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E217" s="35"/>
       <c r="F217" s="4"/>
       <c r="G217" s="5"/>
       <c r="H217" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5836,7 +5936,7 @@
         <v>79.1700000000000017</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E219" s="35" t="n">
         <v>43777</v>
@@ -5844,7 +5944,7 @@
       <c r="F219" s="4"/>
       <c r="G219" s="5"/>
       <c r="H219" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J219" t="n">
         <v>50</v>
@@ -5873,7 +5973,7 @@
         <v>44.0499999999999972</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E221" s="35" t="n">
         <v>43778</v>
@@ -5881,7 +5981,7 @@
       <c r="F221" s="4"/>
       <c r="G221" s="5"/>
       <c r="H221" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5907,7 +6007,7 @@
         <v>93.1299999999999955</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E223" s="35" t="n">
         <v>43784</v>
@@ -5915,7 +6015,7 @@
       <c r="F223" s="4"/>
       <c r="G223" s="5"/>
       <c r="H223" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J223" t="n">
         <v>60</v>
@@ -5930,13 +6030,13 @@
         <v>53.9799999999999969</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E224" s="35"/>
       <c r="F224" s="4"/>
       <c r="G224" s="5"/>
       <c r="H224" s="27" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -5948,13 +6048,13 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E225" s="35"/>
       <c r="F225" s="4"/>
       <c r="G225" s="5"/>
       <c r="H225" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J225" t="n">
         <v>4</v>
@@ -5969,13 +6069,13 @@
         <v>2.29999999999999982</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E226" s="35"/>
       <c r="F226" s="4"/>
       <c r="G226" s="5"/>
       <c r="H226" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6001,7 +6101,7 @@
         <v>29.129999999999999</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E228" s="35" t="n">
         <v>43785</v>
@@ -6009,7 +6109,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="5"/>
       <c r="H228" s="27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6021,13 +6121,13 @@
         <v>61.1000000000000014</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E229" s="35"/>
       <c r="F229" s="4"/>
       <c r="G229" s="5"/>
       <c r="H229" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6053,7 +6153,7 @@
         <v>80</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E231" s="35" t="n">
         <v>43786</v>
@@ -6061,7 +6161,7 @@
       <c r="F231" s="4"/>
       <c r="G231" s="5"/>
       <c r="H231" s="27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6073,13 +6173,13 @@
         <v>140</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E232" s="35"/>
       <c r="F232" s="4"/>
       <c r="G232" s="5"/>
       <c r="H232" s="27" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -6091,13 +6191,13 @@
         <v>33.3500000000000014</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E233" s="35"/>
       <c r="F233" s="4"/>
       <c r="G233" s="5"/>
       <c r="H233" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J233" t="n">
         <v>33.3500000000000014</v>
@@ -6126,7 +6226,7 @@
         <v>37</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E235" s="35" t="n">
         <v>43791</v>
@@ -6134,10 +6234,10 @@
       <c r="F235" s="4"/>
       <c r="G235" s="5"/>
       <c r="H235" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L235" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -6149,16 +6249,16 @@
         <v>25.0100000000000016</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E236" s="35"/>
       <c r="F236" s="4"/>
       <c r="G236" s="5"/>
       <c r="H236" s="27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L236" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -6170,16 +6270,16 @@
         <v>-37</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E237" s="35"/>
       <c r="F237" s="4"/>
       <c r="G237" s="5"/>
       <c r="H237" s="27" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L237" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -6191,16 +6291,16 @@
         <v>105</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E238" s="35"/>
       <c r="F238" s="4"/>
       <c r="G238" s="5"/>
       <c r="H238" s="27" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L238" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6226,7 +6326,7 @@
         <v>80.6400000000000006</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E240" s="35" t="n">
         <v>43797</v>
@@ -6234,7 +6334,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="5"/>
       <c r="H240" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J240" t="n">
         <v>6</v>
@@ -6249,13 +6349,13 @@
         <v>16</v>
       </c>
       <c r="D241" s="19" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E241" s="35"/>
       <c r="F241" s="4"/>
       <c r="G241" s="5"/>
       <c r="H241" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J241" t="n">
         <v>16</v>
@@ -6269,13 +6369,13 @@
         <v>30</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E242" s="35"/>
       <c r="F242" s="4"/>
       <c r="G242" s="5"/>
       <c r="H242" s="27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I242" t="n">
         <v>30</v>
@@ -6290,13 +6390,13 @@
         <v>24</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E243" s="35"/>
       <c r="F243" s="4"/>
       <c r="G243" s="5"/>
       <c r="H243" s="27" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="J243" t="n">
         <v>24</v>
@@ -6311,13 +6411,13 @@
         <v>35</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E244" s="35"/>
       <c r="F244" s="4"/>
       <c r="G244" s="5"/>
       <c r="H244" s="27" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J244" t="n">
         <v>35</v>
@@ -6349,7 +6449,7 @@
         <v>17.25</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E246" s="35" t="n">
         <v>43798</v>
@@ -6357,7 +6457,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="5"/>
       <c r="H246" s="27" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6369,13 +6469,13 @@
         <v>29.1600000000000001</v>
       </c>
       <c r="D247" s="19" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E247" s="35"/>
       <c r="F247" s="4"/>
       <c r="G247" s="5"/>
       <c r="H247" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6415,7 +6515,7 @@
         <v>190.849999999999994</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E250" s="35" t="n">
         <v>43800</v>
@@ -6423,7 +6523,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="5"/>
       <c r="H250" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -6452,7 +6552,7 @@
         <v>10</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E252" s="35" t="n">
         <v>43802</v>
@@ -6460,7 +6560,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="5"/>
       <c r="H252" s="27" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -6472,13 +6572,13 @@
         <v>15</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E253" s="35"/>
       <c r="F253" s="4"/>
       <c r="G253" s="5"/>
       <c r="H253" s="27" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J253" t="n">
         <v>15</v>
@@ -6507,7 +6607,7 @@
         <v>109.060000000000002</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E255" s="35" t="n">
         <v>43804</v>
@@ -6515,7 +6615,7 @@
       <c r="F255" s="4"/>
       <c r="G255" s="5"/>
       <c r="H255" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6527,13 +6627,13 @@
         <v>-30</v>
       </c>
       <c r="D256" s="19" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E256" s="35"/>
       <c r="F256" s="4"/>
       <c r="G256" s="5"/>
       <c r="H256" s="27" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -6545,13 +6645,13 @@
         <v>124.489999999999995</v>
       </c>
       <c r="D257" s="19" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E257" s="35"/>
       <c r="F257" s="4"/>
       <c r="G257" s="5"/>
       <c r="H257" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6577,7 +6677,7 @@
         <v>95.0100000000000051</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E259" s="35" t="n">
         <v>43808</v>
@@ -6585,7 +6685,7 @@
       <c r="F259" s="4"/>
       <c r="G259" s="5"/>
       <c r="H259" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6611,7 +6711,7 @@
         <v>13.25</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E261" s="35" t="n">
         <v>43809</v>
@@ -6619,7 +6719,7 @@
       <c r="F261" s="4"/>
       <c r="G261" s="5"/>
       <c r="H261" s="27" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -6644,7 +6744,7 @@
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="20" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E263" s="35" t="n">
         <v>43811</v>
@@ -6652,7 +6752,7 @@
       <c r="F263" s="4"/>
       <c r="G263" s="5"/>
       <c r="H263" s="29" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -6664,13 +6764,13 @@
         <v>5</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E264" s="35"/>
       <c r="F264" s="4"/>
       <c r="G264" s="5"/>
       <c r="H264" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -6682,13 +6782,13 @@
         <v>20</v>
       </c>
       <c r="D265" s="19" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E265" s="35"/>
       <c r="F265" s="4"/>
       <c r="G265" s="5"/>
       <c r="H265" s="29" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -6711,10 +6811,10 @@
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="3" t="n">
-        <v>11.4199999999999999</v>
+        <v>11.4200000000000017</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E267" s="35" t="n">
         <v>43814</v>
@@ -6722,7 +6822,7 @@
       <c r="F267" s="4"/>
       <c r="G267" s="5"/>
       <c r="H267" s="29" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -6734,13 +6834,13 @@
         <v>11.5</v>
       </c>
       <c r="D268" s="19" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E268" s="35"/>
       <c r="F268" s="4"/>
       <c r="G268" s="5"/>
       <c r="H268" s="29" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -6766,7 +6866,7 @@
         <v>5.45999999999999996</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E270" s="35" t="n">
         <v>43815</v>
@@ -6774,7 +6874,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="5"/>
       <c r="H270" s="29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -6786,13 +6886,13 @@
         <v>60.1700000000000017</v>
       </c>
       <c r="D271" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E271" s="35"/>
       <c r="F271" s="4"/>
       <c r="G271" s="5"/>
       <c r="H271" s="29" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -6804,13 +6904,13 @@
         <v>21.620000000000001</v>
       </c>
       <c r="D272" s="19" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E272" s="35"/>
       <c r="F272" s="4"/>
       <c r="G272" s="5"/>
       <c r="H272" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -6822,13 +6922,13 @@
         <v>-10</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E273" s="35"/>
       <c r="F273" s="4"/>
       <c r="G273" s="5"/>
       <c r="H273" s="29" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -6854,7 +6954,7 @@
         <v>40</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E275" s="35" t="n">
         <v>43816</v>
@@ -6862,7 +6962,7 @@
       <c r="F275" s="4"/>
       <c r="G275" s="5"/>
       <c r="H275" s="29" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -6888,7 +6988,7 @@
         <v>73.5900000000000034</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E277" s="35" t="n">
         <v>43817</v>
@@ -6896,7 +6996,7 @@
       <c r="F277" s="4"/>
       <c r="G277" s="5"/>
       <c r="H277" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -6922,7 +7022,7 @@
         <v>25.75</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E279" s="35" t="n">
         <v>43818</v>
@@ -6930,7 +7030,7 @@
       <c r="F279" s="4"/>
       <c r="G279" s="5"/>
       <c r="H279" s="29" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -6942,13 +7042,13 @@
         <v>-12</v>
       </c>
       <c r="D280" s="19" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E280" s="35"/>
       <c r="F280" s="4"/>
       <c r="G280" s="5"/>
       <c r="H280" s="29" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -6960,13 +7060,13 @@
         <v>227.629999999999995</v>
       </c>
       <c r="D281" s="19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E281" s="35"/>
       <c r="F281" s="4"/>
       <c r="G281" s="5"/>
       <c r="H281" s="29" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -6994,7 +7094,7 @@
         <v>39.0700000000000003</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E283" s="35" t="n">
         <v>43821</v>
@@ -7002,7 +7102,7 @@
       <c r="F283" s="4"/>
       <c r="G283" s="5"/>
       <c r="H283" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7014,13 +7114,13 @@
         <v>39.6700000000000017</v>
       </c>
       <c r="D284" s="19" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E284" s="35"/>
       <c r="F284" s="4"/>
       <c r="G284" s="5"/>
       <c r="H284" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7032,13 +7132,13 @@
         <v>114.680000000000007</v>
       </c>
       <c r="D285" s="19" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E285" s="35"/>
       <c r="F285" s="4"/>
       <c r="G285" s="5"/>
       <c r="H285" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -7050,16 +7150,16 @@
         <v>-114</v>
       </c>
       <c r="D286" s="19" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E286" s="35"/>
       <c r="F286" s="4"/>
       <c r="G286" s="5"/>
       <c r="H286" s="29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K286" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7071,11 +7171,11 @@
         <v>-39</v>
       </c>
       <c r="D287" s="19" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E287" s="35"/>
       <c r="H287" s="29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7101,7 +7201,7 @@
         <v>1080</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E289" s="35" t="n">
         <v>43824</v>
@@ -7109,7 +7209,7 @@
       <c r="F289" s="4"/>
       <c r="G289" s="5"/>
       <c r="H289" s="29" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7121,13 +7221,13 @@
         <v>-185.849999999999994</v>
       </c>
       <c r="D290" s="19" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E290" s="35"/>
       <c r="F290" s="4"/>
       <c r="G290" s="5"/>
       <c r="H290" s="29" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7139,13 +7239,13 @@
         <v>65.5400000000000063</v>
       </c>
       <c r="D291" s="19" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E291" s="35"/>
       <c r="F291" s="4"/>
       <c r="G291" s="5"/>
       <c r="H291" s="29" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7173,7 +7273,7 @@
         <v>12.75</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E293" s="35" t="n">
         <v>43825</v>
@@ -7181,7 +7281,7 @@
       <c r="F293" s="4"/>
       <c r="G293" s="5"/>
       <c r="H293" s="29" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -7193,13 +7293,13 @@
         <v>57.9200000000000017</v>
       </c>
       <c r="D294" s="19" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E294" s="35"/>
       <c r="F294" s="4"/>
       <c r="G294" s="5"/>
       <c r="H294" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -7211,13 +7311,13 @@
         <v>9</v>
       </c>
       <c r="D295" s="19" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E295" s="35"/>
       <c r="F295" s="4"/>
       <c r="G295" s="5"/>
       <c r="H295" s="29" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -7229,13 +7329,13 @@
         <v>33.4699999999999989</v>
       </c>
       <c r="D296" s="19" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E296" s="35"/>
       <c r="F296" s="4"/>
       <c r="G296" s="5"/>
       <c r="H296" s="29" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -7261,7 +7361,7 @@
         <v>45.3800000000000026</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E298" s="35" t="n">
         <v>43830</v>
@@ -7269,7 +7369,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="5"/>
       <c r="H298" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -7280,13 +7380,13 @@
         <v>-24</v>
       </c>
       <c r="D299" s="19" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E299" s="35"/>
       <c r="F299" s="4"/>
       <c r="G299" s="5"/>
       <c r="H299" s="29" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -7314,7 +7414,7 @@
         <v>20</v>
       </c>
       <c r="D301" s="19" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E301" s="35" t="n">
         <v>43831</v>
@@ -7322,7 +7422,7 @@
       <c r="F301" s="4"/>
       <c r="G301" s="5"/>
       <c r="H301" s="29" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -7350,7 +7450,7 @@
         <v>51.2899999999999991</v>
       </c>
       <c r="D303" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E303" s="35" t="n">
         <v>43835</v>
@@ -7358,7 +7458,7 @@
       <c r="F303" s="4"/>
       <c r="G303" s="5"/>
       <c r="H303" s="19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -7384,7 +7484,7 @@
         <v>22.2800000000000011</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E305" s="35" t="n">
         <v>43838</v>
@@ -7392,7 +7492,7 @@
       <c r="F305" s="4"/>
       <c r="G305" s="5"/>
       <c r="H305" s="30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -7418,7 +7518,7 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E307" s="35" t="n">
         <v>43839</v>
@@ -7426,7 +7526,7 @@
       <c r="F307" s="4"/>
       <c r="G307" s="5"/>
       <c r="H307" s="29" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -7438,13 +7538,13 @@
         <v>6.70000000000000018</v>
       </c>
       <c r="D308" s="19" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E308" s="36"/>
       <c r="F308" s="4"/>
       <c r="G308" s="5"/>
       <c r="H308" s="29" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -7471,7 +7571,7 @@
         <v>58.1300000000000026</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E310" s="35" t="n">
         <v>43840</v>
@@ -7479,7 +7579,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="5"/>
       <c r="H310" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -7505,7 +7605,7 @@
         <v>20</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E312" s="35" t="n">
         <v>43841</v>
@@ -7513,10 +7613,10 @@
       <c r="F312" s="4"/>
       <c r="G312" s="5"/>
       <c r="H312" s="29" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K312" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -7542,7 +7642,7 @@
         <v>63.1400000000000006</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E314" s="35" t="n">
         <v>43844</v>
@@ -7550,7 +7650,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="5"/>
       <c r="H314" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -7576,7 +7676,7 @@
         <v>7.20000000000000018</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E316" s="35" t="n">
         <v>43845</v>
@@ -7584,10 +7684,10 @@
       <c r="F316" s="4"/>
       <c r="G316" s="5"/>
       <c r="H316" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K316" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -7599,13 +7699,13 @@
         <v>54.8299999999999983</v>
       </c>
       <c r="D317" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E317" s="35"/>
       <c r="F317" s="4"/>
       <c r="G317" s="5"/>
       <c r="H317" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -7631,7 +7731,7 @@
         <v>547</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E319" s="35" t="n">
         <v>43846</v>
@@ -7639,10 +7739,10 @@
       <c r="F319" s="4"/>
       <c r="G319" s="5"/>
       <c r="H319" s="29" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="L319" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -7654,13 +7754,13 @@
         <v>6.09999999999999964</v>
       </c>
       <c r="D320" s="19" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E320" s="35"/>
       <c r="F320" s="4"/>
       <c r="G320" s="5"/>
       <c r="H320" s="29" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -7686,7 +7786,7 @@
         <v>16.9400000000000013</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E322" s="35" t="n">
         <v>43848</v>
@@ -7694,7 +7794,7 @@
       <c r="F322" s="4"/>
       <c r="G322" s="5"/>
       <c r="H322" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -7720,7 +7820,7 @@
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="20" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E324" s="35" t="n">
         <v>43850</v>
@@ -7728,7 +7828,7 @@
       <c r="F324" s="4"/>
       <c r="G324" s="5"/>
       <c r="H324" s="29" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -7740,13 +7840,13 @@
         <v>147</v>
       </c>
       <c r="D325" s="19" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E325" s="35"/>
       <c r="F325" s="4"/>
       <c r="G325" s="5"/>
       <c r="H325" s="29" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -7772,7 +7872,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E327" s="35" t="n">
         <v>43855</v>
@@ -7780,7 +7880,7 @@
       <c r="F327" s="4"/>
       <c r="G327" s="5"/>
       <c r="H327" s="29" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -7798,7 +7898,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="5"/>
       <c r="H328" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -7824,7 +7924,7 @@
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="20" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E330" s="35" t="n">
         <v>43856</v>
@@ -7832,7 +7932,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="5"/>
       <c r="H330" s="29" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -7844,13 +7944,13 @@
         <v>88.9599999999999937</v>
       </c>
       <c r="D331" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E331" s="35"/>
       <c r="F331" s="4"/>
       <c r="G331" s="5"/>
       <c r="H331" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -7862,13 +7962,13 @@
         <v>174.69999999999996</v>
       </c>
       <c r="D332" s="19" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E332" s="35"/>
       <c r="F332" s="4"/>
       <c r="G332" s="5"/>
       <c r="H332" s="29" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -7894,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="D334" s="20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E334" s="35" t="n">
         <v>43859</v>
@@ -7902,7 +8002,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="5"/>
       <c r="H334" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -7928,7 +8028,7 @@
         <v>9.25</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E336" s="35" t="n">
         <v>43860</v>
@@ -7936,7 +8036,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="5"/>
       <c r="H336" s="29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -7948,13 +8048,13 @@
         <v>3.79000000000000004</v>
       </c>
       <c r="D337" s="19" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E337" s="35"/>
       <c r="F337" s="4"/>
       <c r="G337" s="5"/>
       <c r="H337" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -7980,7 +8080,7 @@
         <v>9.47000000000000064</v>
       </c>
       <c r="D339" s="20" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E339" s="35" t="n">
         <v>43863</v>
@@ -7998,7 +8098,7 @@
         <v>13.7899999999999991</v>
       </c>
       <c r="D340" s="19" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E340" s="35"/>
       <c r="F340" s="4"/>
@@ -8028,7 +8128,7 @@
         <v>11.75</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E342" s="35" t="n">
         <v>43864</v>
@@ -8060,7 +8160,7 @@
         <v>6</v>
       </c>
       <c r="D344" s="20" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E344" s="35" t="n">
         <v>43865</v>
@@ -8092,7 +8192,7 @@
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="20" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E346" s="35" t="n">
         <v>43866</v>
@@ -8100,7 +8200,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="5"/>
       <c r="H346" s="29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8126,7 +8226,7 @@
         <v>16</v>
       </c>
       <c r="D348" s="20" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E348" s="35" t="n">
         <v>43867</v>
@@ -8134,10 +8234,10 @@
       <c r="F348" s="4"/>
       <c r="G348" s="5"/>
       <c r="H348" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L348" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -8148,16 +8248,16 @@
         <v>20</v>
       </c>
       <c r="D349" s="19" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E349" s="35"/>
       <c r="F349" s="4"/>
       <c r="G349" s="5"/>
       <c r="H349" s="29" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L349" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -8168,16 +8268,16 @@
         <v>9.58999999999999986</v>
       </c>
       <c r="D350" s="19" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E350" s="35"/>
       <c r="F350" s="4"/>
       <c r="G350" s="5"/>
       <c r="H350" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L350" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -8203,7 +8303,7 @@
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="20" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E352" s="35" t="n">
         <v>43868</v>
@@ -8211,10 +8311,10 @@
       <c r="F352" s="4"/>
       <c r="G352" s="5"/>
       <c r="H352" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L352" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -8231,10 +8331,10 @@
       <c r="F353" s="4"/>
       <c r="G353" s="5"/>
       <c r="H353" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L353" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -8260,7 +8360,7 @@
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="20" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E355" s="35" t="n">
         <v>43869</v>
@@ -8268,10 +8368,10 @@
       <c r="F355" s="4"/>
       <c r="G355" s="5"/>
       <c r="H355" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L355" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -8297,7 +8397,7 @@
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="20" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E357" s="35" t="n">
         <v>43870</v>
@@ -8305,10 +8405,10 @@
       <c r="F357" s="4"/>
       <c r="G357" s="5"/>
       <c r="H357" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L357" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -8319,16 +8419,16 @@
         <v>3.5</v>
       </c>
       <c r="D358" s="19" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E358" s="35"/>
       <c r="F358" s="4"/>
       <c r="G358" s="5"/>
       <c r="H358" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L358" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -8354,7 +8454,7 @@
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="20" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E360" s="35" t="n">
         <v>43871</v>
@@ -8362,10 +8462,10 @@
       <c r="F360" s="4"/>
       <c r="G360" s="5"/>
       <c r="H360" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L360" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -8391,7 +8491,7 @@
         <v>10</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E362" s="35" t="n">
         <v>43873</v>
@@ -8399,7 +8499,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="5"/>
       <c r="H362" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -8425,7 +8525,7 @@
         <v>4</v>
       </c>
       <c r="D364" s="20" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E364" s="35" t="n">
         <v>43874</v>
@@ -8433,7 +8533,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="5"/>
       <c r="H364" s="29" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -8459,7 +8559,7 @@
         <v>102.959999999999994</v>
       </c>
       <c r="D366" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E366" s="35" t="n">
         <v>43875</v>
@@ -8467,7 +8567,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="5"/>
       <c r="H366" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -8493,7 +8593,7 @@
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="20" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E368" s="35" t="n">
         <v>43876</v>
@@ -8501,7 +8601,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="5"/>
       <c r="H368" s="29" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -8513,13 +8613,13 @@
         <v>116</v>
       </c>
       <c r="D369" s="19" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E369" s="35"/>
       <c r="F369" s="4"/>
       <c r="G369" s="5"/>
       <c r="H369" s="29" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -8545,7 +8645,7 @@
         <v>32.8400000000000034</v>
       </c>
       <c r="D371" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E371" s="35" t="n">
         <v>43878</v>
@@ -8553,7 +8653,7 @@
       <c r="F371" s="4"/>
       <c r="G371" s="5"/>
       <c r="H371" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -8579,7 +8679,7 @@
         <v>7</v>
       </c>
       <c r="D373" s="20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E373" s="35" t="n">
         <v>43880</v>
@@ -8587,7 +8687,7 @@
       <c r="F373" s="4"/>
       <c r="G373" s="5"/>
       <c r="H373" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -8613,7 +8713,7 @@
         <v>14.2200000000000006</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E375" s="35" t="n">
         <v>43887</v>
@@ -8621,7 +8721,7 @@
       <c r="F375" s="4"/>
       <c r="G375" s="5"/>
       <c r="H375" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -8633,13 +8733,13 @@
         <v>59.5499999999999972</v>
       </c>
       <c r="D376" s="19" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E376" s="35"/>
       <c r="F376" s="4"/>
       <c r="G376" s="5"/>
       <c r="H376" s="29" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -8665,7 +8765,7 @@
         <v>56.1799999999999997</v>
       </c>
       <c r="D378" s="20" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E378" s="35" t="n">
         <v>43888</v>
@@ -8673,7 +8773,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="5"/>
       <c r="H378" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -8699,7 +8799,7 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D380" s="20" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E380" s="35" t="n">
         <v>43890</v>
@@ -8707,7 +8807,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="5"/>
       <c r="H380" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -8733,7 +8833,7 @@
         <v>1080</v>
       </c>
       <c r="D382" s="20" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E382" s="35" t="n">
         <v>43891</v>
@@ -8741,7 +8841,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="5"/>
       <c r="H382" s="29" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -8767,7 +8867,7 @@
         <v>60.259999999999998</v>
       </c>
       <c r="D384" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E384" s="35" t="n">
         <v>43892</v>
@@ -8775,7 +8875,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="5"/>
       <c r="H384" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -8787,13 +8887,13 @@
         <v>41.8999999999999986</v>
       </c>
       <c r="D385" s="19" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E385" s="35"/>
       <c r="F385" s="4"/>
       <c r="G385" s="5"/>
       <c r="H385" s="29" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -8805,13 +8905,13 @@
         <v>40</v>
       </c>
       <c r="D386" s="19" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E386" s="35"/>
       <c r="F386" s="4"/>
       <c r="G386" s="5"/>
       <c r="H386" s="29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -8823,13 +8923,13 @@
         <v>1.5</v>
       </c>
       <c r="D387" s="19" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E387" s="35"/>
       <c r="F387" s="4"/>
       <c r="G387" s="5"/>
       <c r="H387" s="29" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -8855,7 +8955,7 @@
         <v>48.2999999999999972</v>
       </c>
       <c r="D389" s="20" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E389" s="35" t="n">
         <v>43894</v>
@@ -8863,10 +8963,10 @@
       <c r="F389" s="4"/>
       <c r="G389" s="5"/>
       <c r="H389" s="29" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L389" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -8878,16 +8978,16 @@
         <v>44</v>
       </c>
       <c r="D390" s="19" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E390" s="35"/>
       <c r="F390" s="4"/>
       <c r="G390" s="5"/>
       <c r="H390" s="29" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L390" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -8898,13 +8998,13 @@
         <v>-48</v>
       </c>
       <c r="D391" s="19" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H391" s="27" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L391" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -8916,14 +9016,14 @@
         <v>-44</v>
       </c>
       <c r="D392" s="19" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E392" s="35"/>
       <c r="H392" s="27" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L392" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -8949,7 +9049,7 @@
         <v>19.5</v>
       </c>
       <c r="D394" s="20" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E394" s="35" t="n">
         <v>43895</v>
@@ -8957,10 +9057,10 @@
       <c r="F394" s="4"/>
       <c r="G394" s="5"/>
       <c r="H394" s="29" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L394" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -8972,14 +9072,14 @@
         <v>176.719999999999999</v>
       </c>
       <c r="D395" s="19" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E395" s="35"/>
       <c r="F395" s="4"/>
       <c r="G395" s="5"/>
       <c r="H395" s="29"/>
       <c r="L395" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -8991,7 +9091,7 @@
         <v>-176.719999999999999</v>
       </c>
       <c r="D396" s="19" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E396" s="35"/>
       <c r="F396" s="10" t="n">
@@ -9001,10 +9101,10 @@
         <v>196.219999999999999</v>
       </c>
       <c r="H396" s="29" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L396" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -9016,7 +9116,7 @@
         <v>15.2300000000000004</v>
       </c>
       <c r="D397" s="20" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E397" s="35" t="n">
         <v>43896</v>
@@ -9024,10 +9124,10 @@
       <c r="F397" s="4"/>
       <c r="G397" s="5"/>
       <c r="H397" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L397" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -9039,16 +9139,16 @@
         <v>6.66000000000000014</v>
       </c>
       <c r="D398" s="19" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E398" s="35"/>
       <c r="F398" s="4"/>
       <c r="G398" s="5"/>
       <c r="H398" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L398" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -9074,7 +9174,7 @@
         <v>6</v>
       </c>
       <c r="D400" s="20" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E400" s="35" t="n">
         <v>43897</v>
@@ -9082,10 +9182,10 @@
       <c r="F400" s="4"/>
       <c r="G400" s="5"/>
       <c r="H400" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L400" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -9111,7 +9211,7 @@
         <v>82.7900000000000063</v>
       </c>
       <c r="D402" s="20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E402" s="35" t="n">
         <v>43898</v>
@@ -9119,10 +9219,10 @@
       <c r="F402" s="4"/>
       <c r="G402" s="5"/>
       <c r="H402" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L402" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -9148,7 +9248,7 @@
         <v>32.8299999999999983</v>
       </c>
       <c r="D404" s="20" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E404" s="35" t="n">
         <v>43900</v>
@@ -9156,7 +9256,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="5"/>
       <c r="H404" s="29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -9168,13 +9268,13 @@
         <v>41.8400000000000034</v>
       </c>
       <c r="D405" s="19" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E405" s="35"/>
       <c r="F405" s="4"/>
       <c r="G405" s="5"/>
       <c r="H405" s="29" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -9200,7 +9300,7 @@
         <v>8</v>
       </c>
       <c r="D407" s="20" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E407" s="35" t="n">
         <v>43901</v>
@@ -9208,7 +9308,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="5"/>
       <c r="H407" s="29" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -9220,13 +9320,13 @@
         <v>15.4000000000000004</v>
       </c>
       <c r="D408" s="19" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E408" s="35"/>
       <c r="F408" s="4"/>
       <c r="G408" s="5"/>
       <c r="H408" s="29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -9238,13 +9338,13 @@
         <v>14.8699999999999992</v>
       </c>
       <c r="D409" s="19" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E409" s="35"/>
       <c r="F409" s="4"/>
       <c r="G409" s="5"/>
       <c r="H409" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -9270,7 +9370,7 @@
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="20" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E411" s="35" t="n">
         <v>43903</v>
@@ -9278,10 +9378,10 @@
       <c r="F411" s="4"/>
       <c r="G411" s="5"/>
       <c r="H411" s="29" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L411" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -9307,7 +9407,7 @@
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="20" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E413" s="35" t="n">
         <v>43904</v>
@@ -9315,10 +9415,10 @@
       <c r="F413" s="4"/>
       <c r="G413" s="5"/>
       <c r="H413" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L413" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -9329,16 +9429,16 @@
         <v>10.5099999999999998</v>
       </c>
       <c r="D414" s="19" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E414" s="35"/>
       <c r="F414" s="4"/>
       <c r="G414" s="5"/>
       <c r="H414" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L414" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -9349,16 +9449,16 @@
         <v>10</v>
       </c>
       <c r="D415" s="19" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E415" s="35"/>
       <c r="F415" s="4"/>
       <c r="G415" s="5"/>
       <c r="H415" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L415" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -9384,7 +9484,7 @@
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E417" s="35" t="n">
         <v>43905</v>
@@ -9392,10 +9492,10 @@
       <c r="F417" s="4"/>
       <c r="G417" s="5"/>
       <c r="H417" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L417" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -9406,16 +9506,16 @@
         <v>-2.5</v>
       </c>
       <c r="D418" s="19" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E418" s="35"/>
       <c r="F418" s="4"/>
       <c r="G418" s="5"/>
       <c r="H418" s="29" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L418" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -9426,16 +9526,16 @@
         <v>10.8000000000000007</v>
       </c>
       <c r="D419" s="19" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E419" s="35"/>
       <c r="F419" s="4"/>
       <c r="G419" s="5"/>
       <c r="H419" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L419" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -9461,7 +9561,7 @@
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="20" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E421" s="35" t="n">
         <v>43906</v>
@@ -9469,10 +9569,10 @@
       <c r="F421" s="4"/>
       <c r="G421" s="5"/>
       <c r="H421" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L421" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -9508,7 +9608,7 @@
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="20" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E424" s="35" t="n">
         <v>43907</v>
@@ -9516,10 +9616,10 @@
       <c r="F424" s="4"/>
       <c r="G424" s="5"/>
       <c r="H424" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L424" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -9530,16 +9630,16 @@
         <v>-20.1999999999999993</v>
       </c>
       <c r="D425" s="19" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E425" s="35"/>
       <c r="F425" s="4"/>
       <c r="G425" s="5"/>
       <c r="H425" s="29" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L425" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -9575,7 +9675,7 @@
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="20" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E428" s="35" t="n">
         <v>43908</v>
@@ -9583,10 +9683,10 @@
       <c r="F428" s="4"/>
       <c r="G428" s="5"/>
       <c r="H428" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L428" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -9612,7 +9712,7 @@
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="20" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E430" s="35" t="n">
         <v>43910</v>
@@ -9620,7 +9720,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="5"/>
       <c r="H430" s="29" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -9642,10 +9742,10 @@
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="3" t="n">
-        <v>114.109999999999999</v>
+        <v>114.110000000000014</v>
       </c>
       <c r="D432" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E432" s="35" t="n">
         <v>43912</v>
@@ -9653,7 +9753,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="5"/>
       <c r="H432" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -9668,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="G433" s="8" t="n">
-        <v>114.109999999999999</v>
+        <v>114.110000000000014</v>
       </c>
       <c r="H433" s="29"/>
     </row>
@@ -9680,7 +9780,7 @@
         <v>106.920000000000002</v>
       </c>
       <c r="D434" s="19" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E434" s="35" t="n">
         <v>43913</v>
@@ -9688,7 +9788,7 @@
       <c r="F434" s="4"/>
       <c r="G434" s="5"/>
       <c r="H434" s="29" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -9699,13 +9799,13 @@
         <v>142.710000000000008</v>
       </c>
       <c r="D435" s="19" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E435" s="35"/>
       <c r="F435" s="4"/>
       <c r="G435" s="5"/>
       <c r="H435" s="29" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -9731,7 +9831,7 @@
         <v>35.4200000000000017</v>
       </c>
       <c r="D437" s="20" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E437" s="35" t="n">
         <v>43923</v>
@@ -9739,7 +9839,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="5"/>
       <c r="H437" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -9765,7 +9865,7 @@
         <v>121.599999999999994</v>
       </c>
       <c r="D439" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E439" s="35" t="n">
         <v>43924</v>
@@ -9773,7 +9873,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="5"/>
       <c r="H439" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -9799,7 +9899,7 @@
         <v>111.670000000000002</v>
       </c>
       <c r="D441" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E441" s="35" t="n">
         <v>43935</v>
@@ -9807,7 +9907,7 @@
       <c r="F441" s="4"/>
       <c r="G441" s="5"/>
       <c r="H441" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -9833,7 +9933,7 @@
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="20" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E443" s="35" t="n">
         <v>43938</v>
@@ -9841,7 +9941,7 @@
       <c r="F443" s="4"/>
       <c r="G443" s="5"/>
       <c r="H443" s="29" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -9867,7 +9967,7 @@
         <v>47.3100000000000023</v>
       </c>
       <c r="D445" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E445" s="35" t="n">
         <v>43939</v>
@@ -9875,7 +9975,7 @@
       <c r="F445" s="4"/>
       <c r="G445" s="5"/>
       <c r="H445" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -9901,7 +10001,7 @@
         <v>65.3499999999999943</v>
       </c>
       <c r="D447" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E447" s="35" t="n">
         <v>43948</v>
@@ -9909,7 +10009,7 @@
       <c r="F447" s="4"/>
       <c r="G447" s="5"/>
       <c r="H447" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -9921,13 +10021,13 @@
         <v>44.0799999999999983</v>
       </c>
       <c r="D448" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E448" s="35"/>
       <c r="F448" s="4"/>
       <c r="G448" s="5"/>
       <c r="H448" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -9954,13 +10054,13 @@
         <v>75.6599999999999824</v>
       </c>
       <c r="D450" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E450" s="33" t="n">
         <v>43958</v>
       </c>
       <c r="H450" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="451" spans="1:1">
@@ -9976,13 +10076,13 @@
         <v>185</v>
       </c>
       <c r="D452" s="19" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E452" s="33" t="n">
         <v>43960</v>
       </c>
       <c r="H452" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="453" spans="1:1">
@@ -9998,13 +10098,13 @@
         <v>51.5399999999999991</v>
       </c>
       <c r="D454" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E454" s="33" t="n">
         <v>43964</v>
       </c>
       <c r="H454" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -10020,13 +10120,13 @@
         <v>38.490000000000002</v>
       </c>
       <c r="D456" s="19" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E456" s="33" t="n">
         <v>43966</v>
       </c>
       <c r="H456" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -10037,10 +10137,10 @@
         <v>10</v>
       </c>
       <c r="D457" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H457" s="27" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="458" spans="1:1">
@@ -10056,13 +10156,13 @@
         <v>12.5</v>
       </c>
       <c r="D459" s="19" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E459" s="33" t="n">
         <v>43967</v>
       </c>
       <c r="H459" s="27" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="460" spans="1:1">
@@ -10078,13 +10178,13 @@
         <v>68.519999999999996</v>
       </c>
       <c r="D461" s="20" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E461" s="33" t="n">
         <v>43971</v>
       </c>
       <c r="H461" s="29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="462" spans="1:1">
@@ -10100,13 +10200,13 @@
         <v>117.810000000000002</v>
       </c>
       <c r="D463" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E463" s="33" t="n">
         <v>43973</v>
       </c>
       <c r="H463" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="464" spans="1:1">
@@ -10122,13 +10222,13 @@
         <v>1.25</v>
       </c>
       <c r="D465" s="19" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E465" s="33" t="n">
         <v>43979</v>
       </c>
       <c r="H465" s="27" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -10139,10 +10239,10 @@
         <v>76.5100000000000051</v>
       </c>
       <c r="D466" s="19" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H466" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -10153,10 +10253,10 @@
         <v>30.3000000000000007</v>
       </c>
       <c r="D467" s="19" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H467" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="468" spans="1:1">
@@ -10172,13 +10272,13 @@
         <v>55.0399999999999991</v>
       </c>
       <c r="D469" s="20" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E469" s="33" t="n">
         <v>43984</v>
       </c>
       <c r="H469" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="470" spans="1:1">
@@ -10194,13 +10294,13 @@
         <v>5</v>
       </c>
       <c r="D471" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E471" s="33" t="n">
         <v>43985</v>
       </c>
       <c r="H471" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -10211,10 +10311,10 @@
         <v>100.709999999999994</v>
       </c>
       <c r="D472" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H472" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -10225,10 +10325,10 @@
         <v>7.90000000000000036</v>
       </c>
       <c r="D473" s="19" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H473" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="474" spans="1:1">
@@ -10244,13 +10344,13 @@
         <v>90</v>
       </c>
       <c r="D475" s="19" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E475" s="33" t="n">
         <v>43986</v>
       </c>
       <c r="H475" s="27" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="476" spans="1:1">
@@ -10266,13 +10366,13 @@
         <v>360</v>
       </c>
       <c r="D477" s="19" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E477" s="33" t="n">
         <v>43987</v>
       </c>
       <c r="H477" s="27" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="478" spans="1:1">
@@ -10288,7 +10388,7 @@
         <v>83.4699999999999989</v>
       </c>
       <c r="D479" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E479" s="33" t="n">
         <v>43990</v>
@@ -10307,13 +10407,13 @@
         <v>220</v>
       </c>
       <c r="D481" s="19" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E481" s="33" t="n">
         <v>43992</v>
       </c>
       <c r="H481" s="27" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="482" spans="1:1">
@@ -10343,10 +10443,10 @@
         <v>7.59999999999999876</v>
       </c>
       <c r="D484" s="19" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H484" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -10362,7 +10462,7 @@
         <v>94.6899999999999977</v>
       </c>
       <c r="D486" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E486" s="33" t="n">
         <v>43995</v>
@@ -10381,7 +10481,7 @@
         <v>20</v>
       </c>
       <c r="D488" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E488" s="33" t="n">
         <v>43996</v>
@@ -10400,13 +10500,13 @@
         <v>33.2800000000000011</v>
       </c>
       <c r="D490" s="19" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E490" s="33" t="n">
         <v>43997</v>
       </c>
       <c r="H490" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="491" spans="1:1">
@@ -10422,13 +10522,13 @@
         <v>24.6000000000000014</v>
       </c>
       <c r="D492" s="19" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E492" s="33" t="n">
         <v>43998</v>
       </c>
       <c r="H492" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -10439,10 +10539,10 @@
         <v>41.3900000000000006</v>
       </c>
       <c r="D493" s="19" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H493" s="27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="494" spans="1:1">
@@ -10458,13 +10558,13 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D495" s="19" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E495" s="33" t="n">
         <v>43999</v>
       </c>
       <c r="H495" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="496" spans="1:1">
@@ -10480,7 +10580,7 @@
         <v>74.3599999999999994</v>
       </c>
       <c r="D497" s="20" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E497" s="33" t="n">
         <v>44000</v>
@@ -10499,13 +10599,13 @@
         <v>23.4100000000000001</v>
       </c>
       <c r="D499" s="19" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E499" s="33" t="n">
         <v>44004</v>
       </c>
       <c r="H499" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -10516,10 +10616,10 @@
         <v>10.1999999999999993</v>
       </c>
       <c r="D500" s="19" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H500" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="501" spans="1:1">
@@ -10535,7 +10635,7 @@
         <v>37.0900000000000034</v>
       </c>
       <c r="D502" s="20" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E502" s="33" t="n">
         <v>44008</v>
@@ -10549,10 +10649,10 @@
         <v>95.019999999999996</v>
       </c>
       <c r="D503" s="19" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H503" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="504" spans="1:1">
@@ -10568,13 +10668,13 @@
         <v>20.7399999999999984</v>
       </c>
       <c r="D505" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E505" s="33" t="n">
         <v>44013</v>
       </c>
       <c r="H505" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="506" spans="1:1">
@@ -10590,13 +10690,13 @@
         <v>9</v>
       </c>
       <c r="D507" s="19" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E507" s="33" t="n">
         <v>44015</v>
       </c>
       <c r="H507" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="508" spans="1:1">
@@ -10612,13 +10712,13 @@
         <v>7.88999999999999879</v>
       </c>
       <c r="D509" s="19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E509" s="33" t="n">
         <v>44016</v>
       </c>
       <c r="H509" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10629,7 +10729,7 @@
         <v>49.7800000000000011</v>
       </c>
       <c r="D510" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="511" spans="1:1">
@@ -10645,13 +10745,13 @@
         <v>42.5200000000000031</v>
       </c>
       <c r="D512" s="19" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E512" s="33" t="n">
         <v>44019</v>
       </c>
       <c r="H512" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -10662,10 +10762,10 @@
         <v>49.0300000000000011</v>
       </c>
       <c r="D513" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H513" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="514" spans="1:1">
@@ -10681,13 +10781,13 @@
         <v>23.2100000000000009</v>
       </c>
       <c r="D515" s="19" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E515" s="33" t="n">
         <v>44020</v>
       </c>
       <c r="H515" s="27" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -10698,10 +10798,10 @@
         <v>67.0300000000000011</v>
       </c>
       <c r="D516" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H516" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -10712,10 +10812,10 @@
         <v>110</v>
       </c>
       <c r="D517" s="19" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H517" s="27" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="518" spans="1:1">
@@ -10731,7 +10831,7 @@
         <v>1120</v>
       </c>
       <c r="D519" s="19" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E519" s="33" t="n">
         <v>44022</v>
@@ -10745,10 +10845,10 @@
         <v>24.8000000000000007</v>
       </c>
       <c r="D520" s="19" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H520" s="27" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -10759,10 +10859,10 @@
         <v>48.6899999999999977</v>
       </c>
       <c r="D521" s="19" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H521" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -10773,10 +10873,10 @@
         <v>8.40000000000000036</v>
       </c>
       <c r="D522" s="19" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H522" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -10787,10 +10887,10 @@
         <v>40.2299999999999969</v>
       </c>
       <c r="D523" s="19" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H523" s="27" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="524" spans="1:1">
@@ -10806,13 +10906,13 @@
         <v>14.1199999999999992</v>
       </c>
       <c r="D525" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E525" s="33" t="n">
         <v>44026</v>
       </c>
       <c r="H525" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="526" spans="1:1">
@@ -10828,13 +10928,13 @@
         <v>28.3599999999999994</v>
       </c>
       <c r="D527" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E527" s="33" t="n">
         <v>44027</v>
       </c>
       <c r="H527" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="528" spans="1:1">
@@ -10850,13 +10950,13 @@
         <v>43.6700000000000017</v>
       </c>
       <c r="D529" s="19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E529" s="33" t="n">
         <v>44028</v>
       </c>
       <c r="H529" s="27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -10867,10 +10967,10 @@
         <v>48.8500000000000014</v>
       </c>
       <c r="D530" s="19" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H530" s="27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -10881,10 +10981,10 @@
         <v>37.75</v>
       </c>
       <c r="D531" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H531" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -10900,13 +11000,13 @@
         <v>28.7300000000000004</v>
       </c>
       <c r="D533" s="19" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E533" s="33" t="n">
         <v>44031</v>
       </c>
       <c r="H533" s="27" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -10917,10 +11017,10 @@
         <v>34.4799999999999969</v>
       </c>
       <c r="D534" s="19" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H534" s="27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -10931,10 +11031,10 @@
         <v>17.25</v>
       </c>
       <c r="D535" s="19" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H535" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="536" spans="1:1">
@@ -10950,13 +11050,13 @@
         <v>270.399999999999977</v>
       </c>
       <c r="D537" s="19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E537" s="33" t="n">
         <v>44032</v>
       </c>
       <c r="H537" s="27" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10967,7 +11067,7 @@
         <v>44.6499999999999986</v>
       </c>
       <c r="D538" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -10978,10 +11078,10 @@
         <v>11</v>
       </c>
       <c r="D539" s="19" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H539" s="27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="540" spans="1:1">
@@ -10997,13 +11097,13 @@
         <v>56.4200000000000017</v>
       </c>
       <c r="D541" s="19" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E541" s="33" t="n">
         <v>44033</v>
       </c>
       <c r="H541" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -11014,7 +11114,7 @@
         <v>20.5399999999999991</v>
       </c>
       <c r="D542" s="19" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="543" spans="1:1">
@@ -11030,13 +11130,13 @@
         <v>33.7000000000000028</v>
       </c>
       <c r="D544" s="19" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E544" s="33" t="n">
         <v>44034</v>
       </c>
       <c r="H544" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="545" spans="1:1">
@@ -11052,7 +11152,7 @@
         <v>30.3599999999999994</v>
       </c>
       <c r="D546" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E546" s="33" t="n">
         <v>44036</v>
@@ -11071,13 +11171,13 @@
         <v>6.83999999999999986</v>
       </c>
       <c r="D548" s="19" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E548" s="33" t="n">
         <v>44037</v>
       </c>
       <c r="H548" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -11093,13 +11193,13 @@
         <v>1560</v>
       </c>
       <c r="D550" s="19" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E550" s="33" t="n">
         <v>44040</v>
       </c>
       <c r="H550" s="27" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="551" spans="1:1">
@@ -11115,13 +11215,13 @@
         <v>19.0500000000000007</v>
       </c>
       <c r="D552" s="19" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E552" s="33" t="n">
         <v>44041</v>
       </c>
       <c r="H552" s="27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -11132,10 +11232,10 @@
         <v>17.7699999999999996</v>
       </c>
       <c r="D553" s="19" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H553" s="27" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -11146,10 +11246,10 @@
         <v>26.6900000000000013</v>
       </c>
       <c r="D554" s="19" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H554" s="27" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -11160,10 +11260,10 @@
         <v>18</v>
       </c>
       <c r="D555" s="19" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H555" s="27" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -11174,10 +11274,10 @@
         <v>38.25</v>
       </c>
       <c r="D556" s="19" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H556" s="27" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="557" spans="1:11">
@@ -11188,13 +11288,13 @@
         <v>1575</v>
       </c>
       <c r="D557" s="19" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H557" s="27" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K557" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="558" spans="1:1">
@@ -11210,13 +11310,13 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D559" s="19" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E559" s="33" t="n">
         <v>44042</v>
       </c>
       <c r="H559" s="27" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -11227,10 +11327,10 @@
         <v>92.019999999999996</v>
       </c>
       <c r="D560" s="19" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H560" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -11241,10 +11341,10 @@
         <v>100</v>
       </c>
       <c r="D561" s="19" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H561" s="27" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="562" spans="1:1">
@@ -11257,10 +11357,10 @@
         <v>562</v>
       </c>
       <c r="C563" s="31" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D563" s="32" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E563" s="39" t="n">
         <v>44046</v>
@@ -11268,7 +11368,7 @@
       <c r="F563" s="32"/>
       <c r="G563" s="32"/>
       <c r="H563" s="32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -11276,16 +11376,16 @@
         <v>563</v>
       </c>
       <c r="C564" s="31" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D564" s="32" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E564" s="38"/>
       <c r="F564" s="32"/>
       <c r="G564" s="32"/>
       <c r="H564" s="32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -11296,7 +11396,7 @@
         <v>10</v>
       </c>
       <c r="D565" s="32" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E565" s="38"/>
       <c r="F565" s="32"/>
@@ -11322,7 +11422,7 @@
         <v>10</v>
       </c>
       <c r="D567" s="32" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E567" s="37" t="n">
         <v>44050</v>
@@ -11330,7 +11430,7 @@
       <c r="F567" s="32"/>
       <c r="G567" s="32"/>
       <c r="H567" s="32" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -11349,10 +11449,10 @@
         <v>568</v>
       </c>
       <c r="C569" s="31" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D569" s="32" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E569" s="37" t="n">
         <v>44051</v>
@@ -11360,7 +11460,7 @@
       <c r="F569" s="32"/>
       <c r="G569" s="32"/>
       <c r="H569" s="32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -11382,7 +11482,7 @@
         <v>300</v>
       </c>
       <c r="D571" s="32" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E571" s="37" t="n">
         <v>44052</v>
@@ -11390,7 +11490,7 @@
       <c r="F571" s="32"/>
       <c r="G571" s="32"/>
       <c r="H571" s="32" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -11405,16 +11505,16 @@
         <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D573" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E573" s="33" t="n">
         <v>44054</v>
       </c>
       <c r="H573" s="32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -11429,16 +11529,16 @@
         <v>574</v>
       </c>
       <c r="C575" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D575" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E575" s="33" t="n">
         <v>44057</v>
       </c>
       <c r="H575" s="32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -11453,16 +11553,16 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D577" s="19" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E577" s="33" t="n">
         <v>44059</v>
       </c>
       <c r="H577" s="27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -11470,13 +11570,13 @@
         <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D578" s="19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H578" s="32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="579" spans="1:1">
@@ -11492,13 +11592,13 @@
         <v>85</v>
       </c>
       <c r="D580" s="19" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E580" s="33" t="n">
         <v>44061</v>
       </c>
       <c r="H580" s="27" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -11514,10 +11614,10 @@
         <v>581</v>
       </c>
       <c r="C582" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D582" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E582" s="40" t="n">
         <v>44063</v>
@@ -11528,10 +11628,10 @@
         <v>582</v>
       </c>
       <c r="C583" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D583" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E583"/>
     </row>
@@ -11540,10 +11640,10 @@
         <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D584" s="19" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E584" s="33" t="n">
         <v>44065</v>
@@ -11564,10 +11664,10 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D587" s="19" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E587" s="33" t="n">
         <v>44068</v>
@@ -11581,7 +11681,7 @@
         <v>7</v>
       </c>
       <c r="D588" s="19" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -11589,10 +11689,10 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D589" s="19" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E589" s="33" t="n">
         <v>44069</v>
@@ -11777,7 +11877,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614162842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614028498" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11786,14 +11886,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614028498" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614028498" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614162842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614028498" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11815,7 +11915,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614162842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614028498" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11824,14 +11924,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614028498" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614028498" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614162842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614028498" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11853,7 +11953,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614162842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614028498" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11862,14 +11962,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614162842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614028498" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614028498" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614162842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614028498" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/documentation/example_expenses_en.xlsx
+++ b/app/documentation/example_expenses_en.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614374801" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614374801" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614374801" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614374801"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614466693" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614466693" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614466693" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614466693"/>
     </ext>
   </extLst>
 </workbook>
@@ -1273,7 +1273,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1288,7 +1288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1319,7 +1319,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1376,7 +1376,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801"/>
+          <pm:border xmlns:pm="smNativeData" id="1614466693"/>
         </ext>
       </extLst>
     </border>
@@ -1395,7 +1395,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1416,7 +1416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1438,7 +1438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1459,7 +1459,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1480,7 +1480,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1502,7 +1502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1525,7 +1525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1547,7 +1547,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1628,10 +1628,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614374801" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614466693" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614374801" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614466693" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G9"/>
+      <selection activeCell="B2" sqref="B2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
@@ -9886,7 +9886,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614374801" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9895,14 +9895,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614374801" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9924,7 +9924,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614374801" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9933,14 +9933,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614374801" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9962,7 +9962,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614374801" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9971,14 +9971,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614374801" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/documentation/example_expenses_en.xlsx
+++ b/app/documentation/example_expenses_en.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614466693" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614466693" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614466693" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614466693"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614502180" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614502180" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614502180" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614502180"/>
     </ext>
   </extLst>
 </workbook>
@@ -1273,7 +1273,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1288,7 +1288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1319,7 +1319,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1376,7 +1376,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693"/>
+          <pm:border xmlns:pm="smNativeData" id="1614502180"/>
         </ext>
       </extLst>
     </border>
@@ -1395,7 +1395,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1416,7 +1416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1438,7 +1438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1459,7 +1459,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1480,7 +1480,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1502,7 +1502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1525,7 +1525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1547,7 +1547,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1628,10 +1628,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614466693" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614502180" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614466693" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614502180" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -9886,7 +9886,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9895,14 +9895,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9924,7 +9924,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9933,14 +9933,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9962,7 +9962,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9971,14 +9971,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
